--- a/Zeitaufzeichnung2.0.xlsx
+++ b/Zeitaufzeichnung2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limbeck\Desktop\Schule 15-16\Projekt\Schools &amp; Quakes\School &amp; Quakes Projekt-Repository\School-Quakes\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\TGM\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
   <si>
     <t>Arbeit:</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>Limbeck</t>
+  </si>
+  <si>
+    <t>Projektcontrolling</t>
+  </si>
+  <si>
+    <t>Besprechungsprotokoll</t>
+  </si>
+  <si>
+    <t>Besprechungsprotkoll</t>
   </si>
 </sst>
 </file>
@@ -353,13 +362,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,8 +1360,8 @@
         <v>41</v>
       </c>
       <c r="O3">
-        <f>'Borsos Robert'!B45</f>
-        <v>19</v>
+        <f>'Borsos Robert'!B46</f>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1363,8 +1372,8 @@
         <v>42</v>
       </c>
       <c r="O4">
-        <f>'Frassl Gabriel'!B45</f>
-        <v>19</v>
+        <f>'Frassl Gabriel'!B46</f>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1375,8 +1384,8 @@
         <v>43</v>
       </c>
       <c r="O5">
-        <f>'Limbeck Markus'!B45</f>
-        <v>19</v>
+        <f>'Limbeck Markus'!B46</f>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1385,15 +1394,15 @@
       </c>
       <c r="D6">
         <f>'Borsos Robert'!D6+'Frassl Gabriel'!D6+'Limbeck Markus'!D6</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f>'Borsos Robert'!K6+'Frassl Gabriel'!K6+'Limbeck Markus'!K6</f>
-        <v>57</v>
+        <v>1.5</v>
       </c>
       <c r="G6" s="5">
         <f>AVERAGE('Borsos Robert'!N6,'Frassl Gabriel'!N6,'Limbeck Markus'!N6)</f>
-        <v>-0.9</v>
+        <v>-1.6666666666666668E-3</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1403,15 +1412,15 @@
       </c>
       <c r="D7">
         <f>'Borsos Robert'!D7+'Frassl Gabriel'!D7+'Limbeck Markus'!D7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f>'Borsos Robert'!K7+'Frassl Gabriel'!K7+'Limbeck Markus'!K7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5">
         <f>AVERAGE('Borsos Robert'!N7,'Frassl Gabriel'!N7,'Limbeck Markus'!N7)</f>
-        <v>0</v>
+        <v>1.3333333333333334E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1420,15 +1429,15 @@
       </c>
       <c r="D8">
         <f>'Borsos Robert'!D8+'Frassl Gabriel'!D8+'Limbeck Markus'!D8</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <f>'Borsos Robert'!K8+'Frassl Gabriel'!K8+'Limbeck Markus'!K8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="5">
         <f>AVERAGE('Borsos Robert'!N8,'Frassl Gabriel'!N8,'Limbeck Markus'!N8)</f>
-        <v>0</v>
+        <v>0.10666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1437,7 +1446,7 @@
       </c>
       <c r="D9">
         <f>'Borsos Robert'!D9+'Frassl Gabriel'!D9+'Limbeck Markus'!D9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f>'Borsos Robert'!K9+'Frassl Gabriel'!K9+'Limbeck Markus'!K9</f>
@@ -1445,7 +1454,7 @@
       </c>
       <c r="G9" s="5">
         <f>AVERAGE('Borsos Robert'!N9,'Frassl Gabriel'!N9,'Limbeck Markus'!N9)</f>
-        <v>0</v>
+        <v>1.3333333333333334E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1466,15 +1475,15 @@
       </c>
       <c r="D13">
         <f>'Borsos Robert'!D13+'Frassl Gabriel'!D13+'Limbeck Markus'!D13</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
         <f>'Borsos Robert'!K13+'Frassl Gabriel'!K13+'Limbeck Markus'!K13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5">
         <f>AVERAGE('Borsos Robert'!N13,'Frassl Gabriel'!N13,'Limbeck Markus'!N13)</f>
-        <v>0</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1483,15 +1492,15 @@
       </c>
       <c r="D14">
         <f>'Borsos Robert'!D14+'Frassl Gabriel'!D14+'Limbeck Markus'!D14</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <f>'Borsos Robert'!K14+'Frassl Gabriel'!K14+'Limbeck Markus'!K14</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G14" s="5">
         <f>AVERAGE('Borsos Robert'!N14,'Frassl Gabriel'!N14,'Limbeck Markus'!N14)</f>
-        <v>0</v>
+        <v>-2.3333333333333334E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1500,15 +1509,15 @@
       </c>
       <c r="D15">
         <f>'Borsos Robert'!D15+'Frassl Gabriel'!D15+'Limbeck Markus'!D15</f>
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="E15">
         <f>'Borsos Robert'!K15+'Frassl Gabriel'!K15+'Limbeck Markus'!K15</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5">
         <f>AVERAGE('Borsos Robert'!N15,'Frassl Gabriel'!N15,'Limbeck Markus'!N15)</f>
-        <v>0</v>
+        <v>-5.3633333333333331E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1562,15 +1571,15 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <f>'Borsos Robert'!D21+'Frassl Gabriel'!D21+'Limbeck Markus'!D21</f>
+        <f>'Borsos Robert'!D22+'Frassl Gabriel'!D22+'Limbeck Markus'!D22</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>'Borsos Robert'!K21+'Frassl Gabriel'!K21+'Limbeck Markus'!K21</f>
+        <f>'Borsos Robert'!K22+'Frassl Gabriel'!K22+'Limbeck Markus'!K22</f>
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <f>AVERAGE('Borsos Robert'!N21,'Frassl Gabriel'!N21,'Limbeck Markus'!N21)</f>
+        <f>AVERAGE('Borsos Robert'!N22,'Frassl Gabriel'!N22,'Limbeck Markus'!N22)</f>
         <v>0</v>
       </c>
     </row>
@@ -1579,15 +1588,15 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <f>'Borsos Robert'!D22+'Frassl Gabriel'!D22+'Limbeck Markus'!D22</f>
+        <f>'Borsos Robert'!D23+'Frassl Gabriel'!D23+'Limbeck Markus'!D23</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>'Borsos Robert'!K22+'Frassl Gabriel'!K22+'Limbeck Markus'!K22</f>
+        <f>'Borsos Robert'!K23+'Frassl Gabriel'!K23+'Limbeck Markus'!K23</f>
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <f>AVERAGE('Borsos Robert'!N22,'Frassl Gabriel'!N22,'Limbeck Markus'!N22)</f>
+        <f>AVERAGE('Borsos Robert'!N23,'Frassl Gabriel'!N23,'Limbeck Markus'!N23)</f>
         <v>0</v>
       </c>
     </row>
@@ -1596,15 +1605,15 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <f>'Borsos Robert'!D23+'Frassl Gabriel'!D23+'Limbeck Markus'!D23</f>
+        <f>'Borsos Robert'!D24+'Frassl Gabriel'!D24+'Limbeck Markus'!D24</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>'Borsos Robert'!K23+'Frassl Gabriel'!K23+'Limbeck Markus'!K23</f>
+        <f>'Borsos Robert'!K24+'Frassl Gabriel'!K24+'Limbeck Markus'!K24</f>
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <f>AVERAGE('Borsos Robert'!N23,'Frassl Gabriel'!N23,'Limbeck Markus'!N23)</f>
+        <f>AVERAGE('Borsos Robert'!N24,'Frassl Gabriel'!N24,'Limbeck Markus'!N24)</f>
         <v>0</v>
       </c>
     </row>
@@ -1625,15 +1634,15 @@
         <v>23</v>
       </c>
       <c r="D27">
-        <f>'Borsos Robert'!D27+'Frassl Gabriel'!D27+'Limbeck Markus'!D27</f>
+        <f>'Borsos Robert'!D28+'Frassl Gabriel'!D28+'Limbeck Markus'!D28</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>'Borsos Robert'!K27+'Frassl Gabriel'!K27+'Limbeck Markus'!K27</f>
+        <f>'Borsos Robert'!K28+'Frassl Gabriel'!K28+'Limbeck Markus'!K28</f>
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f>AVERAGE('Borsos Robert'!N27,'Frassl Gabriel'!N27,'Limbeck Markus'!N27)</f>
+        <f>AVERAGE('Borsos Robert'!N28,'Frassl Gabriel'!N28,'Limbeck Markus'!N28)</f>
         <v>0</v>
       </c>
     </row>
@@ -1642,15 +1651,15 @@
         <v>24</v>
       </c>
       <c r="D28">
-        <f>'Borsos Robert'!D28+'Frassl Gabriel'!D28+'Limbeck Markus'!D28</f>
+        <f>'Borsos Robert'!D29+'Frassl Gabriel'!D29+'Limbeck Markus'!D29</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>'Borsos Robert'!K28+'Frassl Gabriel'!K28+'Limbeck Markus'!K28</f>
+        <f>'Borsos Robert'!K29+'Frassl Gabriel'!K29+'Limbeck Markus'!K29</f>
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f>AVERAGE('Borsos Robert'!N28,'Frassl Gabriel'!N28,'Limbeck Markus'!N28)</f>
+        <f>AVERAGE('Borsos Robert'!N29,'Frassl Gabriel'!N29,'Limbeck Markus'!N29)</f>
         <v>0</v>
       </c>
     </row>
@@ -1659,15 +1668,15 @@
         <v>25</v>
       </c>
       <c r="D29">
-        <f>'Borsos Robert'!D29+'Frassl Gabriel'!D29+'Limbeck Markus'!D29</f>
+        <f>'Borsos Robert'!D30+'Frassl Gabriel'!D30+'Limbeck Markus'!D30</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>'Borsos Robert'!K29+'Frassl Gabriel'!K29+'Limbeck Markus'!K29</f>
+        <f>'Borsos Robert'!K30+'Frassl Gabriel'!K30+'Limbeck Markus'!K30</f>
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <f>AVERAGE('Borsos Robert'!N29,'Frassl Gabriel'!N29,'Limbeck Markus'!N29)</f>
+        <f>AVERAGE('Borsos Robert'!N30,'Frassl Gabriel'!N30,'Limbeck Markus'!N30)</f>
         <v>0</v>
       </c>
     </row>
@@ -1676,15 +1685,15 @@
         <v>26</v>
       </c>
       <c r="D30">
-        <f>'Borsos Robert'!D30+'Frassl Gabriel'!D30+'Limbeck Markus'!D30</f>
+        <f>'Borsos Robert'!D31+'Frassl Gabriel'!D31+'Limbeck Markus'!D31</f>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>'Borsos Robert'!K30+'Frassl Gabriel'!K30+'Limbeck Markus'!K30</f>
+        <f>'Borsos Robert'!K31+'Frassl Gabriel'!K31+'Limbeck Markus'!K31</f>
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <f>AVERAGE('Borsos Robert'!N30,'Frassl Gabriel'!N30,'Limbeck Markus'!N30)</f>
+        <f>AVERAGE('Borsos Robert'!N31,'Frassl Gabriel'!N31,'Limbeck Markus'!N31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1705,15 +1714,15 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <f>'Borsos Robert'!D34+'Frassl Gabriel'!D34+'Limbeck Markus'!D34</f>
+        <f>'Borsos Robert'!D35+'Frassl Gabriel'!D35+'Limbeck Markus'!D35</f>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>'Borsos Robert'!K34+'Frassl Gabriel'!K34+'Limbeck Markus'!K34</f>
+        <f>'Borsos Robert'!K35+'Frassl Gabriel'!K35+'Limbeck Markus'!K35</f>
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f>AVERAGE('Borsos Robert'!N34,'Frassl Gabriel'!N34,'Limbeck Markus'!N34)</f>
+        <f>AVERAGE('Borsos Robert'!N35,'Frassl Gabriel'!N35,'Limbeck Markus'!N35)</f>
         <v>0</v>
       </c>
     </row>
@@ -1722,15 +1731,15 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <f>'Borsos Robert'!D35+'Frassl Gabriel'!D35+'Limbeck Markus'!D35</f>
+        <f>'Borsos Robert'!D36+'Frassl Gabriel'!D36+'Limbeck Markus'!D36</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>'Borsos Robert'!K35+'Frassl Gabriel'!K35+'Limbeck Markus'!K35</f>
+        <f>'Borsos Robert'!K36+'Frassl Gabriel'!K36+'Limbeck Markus'!K36</f>
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f>AVERAGE('Borsos Robert'!N35,'Frassl Gabriel'!N35,'Limbeck Markus'!N35)</f>
+        <f>AVERAGE('Borsos Robert'!N36,'Frassl Gabriel'!N36,'Limbeck Markus'!N36)</f>
         <v>0</v>
       </c>
     </row>
@@ -1739,15 +1748,15 @@
         <v>30</v>
       </c>
       <c r="D36">
-        <f>'Borsos Robert'!D36+'Frassl Gabriel'!D36+'Limbeck Markus'!D36</f>
+        <f>'Borsos Robert'!D37+'Frassl Gabriel'!D37+'Limbeck Markus'!D37</f>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>'Borsos Robert'!K36+'Frassl Gabriel'!K36+'Limbeck Markus'!K36</f>
+        <f>'Borsos Robert'!K37+'Frassl Gabriel'!K37+'Limbeck Markus'!K37</f>
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f>AVERAGE('Borsos Robert'!N36,'Frassl Gabriel'!N36,'Limbeck Markus'!N36)</f>
+        <f>AVERAGE('Borsos Robert'!N37,'Frassl Gabriel'!N37,'Limbeck Markus'!N37)</f>
         <v>0</v>
       </c>
     </row>
@@ -1756,15 +1765,15 @@
         <v>31</v>
       </c>
       <c r="D37">
-        <f>'Borsos Robert'!D37+'Frassl Gabriel'!D37+'Limbeck Markus'!D37</f>
+        <f>'Borsos Robert'!D38+'Frassl Gabriel'!D38+'Limbeck Markus'!D38</f>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>'Borsos Robert'!K37+'Frassl Gabriel'!K37+'Limbeck Markus'!K37</f>
+        <f>'Borsos Robert'!K38+'Frassl Gabriel'!K38+'Limbeck Markus'!K38</f>
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f>AVERAGE('Borsos Robert'!N37,'Frassl Gabriel'!N37,'Limbeck Markus'!N37)</f>
+        <f>AVERAGE('Borsos Robert'!N38,'Frassl Gabriel'!N38,'Limbeck Markus'!N38)</f>
         <v>0</v>
       </c>
     </row>
@@ -1773,15 +1782,15 @@
         <v>32</v>
       </c>
       <c r="D38">
-        <f>'Borsos Robert'!D38+'Frassl Gabriel'!D38+'Limbeck Markus'!D38</f>
+        <f>'Borsos Robert'!D39+'Frassl Gabriel'!D39+'Limbeck Markus'!D39</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>'Borsos Robert'!K38+'Frassl Gabriel'!K38+'Limbeck Markus'!K38</f>
+        <f>'Borsos Robert'!K39+'Frassl Gabriel'!K39+'Limbeck Markus'!K39</f>
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f>AVERAGE('Borsos Robert'!N38,'Frassl Gabriel'!N38,'Limbeck Markus'!N38)</f>
+        <f>AVERAGE('Borsos Robert'!N39,'Frassl Gabriel'!N39,'Limbeck Markus'!N39)</f>
         <v>0</v>
       </c>
     </row>
@@ -1793,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1836,22 +1845,22 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>42288</v>
+        <v>42257</v>
       </c>
       <c r="F5" s="2">
-        <v>42297</v>
+        <v>42264</v>
       </c>
       <c r="G5" s="2">
-        <v>42288</v>
+        <v>42271</v>
       </c>
       <c r="H5" s="2">
-        <v>42297</v>
+        <v>42278</v>
       </c>
       <c r="I5" s="2">
-        <v>42288</v>
+        <v>42285</v>
       </c>
       <c r="J5" s="2">
-        <v>42297</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -1859,40 +1868,24 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>J6+I6+H6+G6+F6+E6</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N6" s="5">
         <f>D6/100*(D6-K6)</f>
-        <v>-0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="K7">
         <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
         <v>0</v>
@@ -1906,7 +1899,9 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1920,7 +1915,9 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1942,35 +1939,35 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>42288</v>
+        <v>42257</v>
       </c>
       <c r="F12" s="2">
-        <v>42297</v>
+        <v>42264</v>
       </c>
       <c r="G12" s="2">
-        <v>42288</v>
+        <v>42271</v>
       </c>
       <c r="H12" s="2">
-        <v>42297</v>
+        <v>42278</v>
       </c>
       <c r="I12" s="2">
-        <v>42288</v>
+        <v>42285</v>
       </c>
       <c r="J12" s="2">
-        <v>42297</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <f>J13+I13+H13+G13+F13+E13</f>
         <v>0</v>
@@ -1984,26 +1981,41 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
       <c r="K14">
-        <f t="shared" ref="K14:K17" si="2">J14+I14+H14+G14+F14+E14</f>
-        <v>0</v>
+        <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
+        <v>4</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" ref="N14:N17" si="3">D14/100*(D14-K14)</f>
-        <v>0</v>
+        <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
+      <c r="D15">
+        <v>2.5</v>
+      </c>
+      <c r="F15">
+        <v>3.5</v>
+      </c>
+      <c r="G15">
+        <v>1.5</v>
+      </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2032,231 +2044,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.5999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F20" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H20" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J20" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21">
-        <f>J21+I21+H21+G21+F21+E21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <f>D21/100*(D21-K21)</f>
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H21" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I21" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J21" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K23" si="4">J22+I22+H22+G22+F22+E22</f>
+        <f>J22+I22+H22+G22+F22+E22</f>
         <v>0</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" ref="N22:N23" si="5">D22/100*(D22-K22)</f>
+        <f>D22/100*(D22-K22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F26" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H26" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J26" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27">
-        <f>J27+I27+H27+G27+F27+E27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
-        <f>D27/100*(D27-K27)</f>
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F27" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G27" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H27" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I27" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J27" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K30" si="6">J28+I28+H28+G28+F28+E28</f>
+        <f>J28+I28+H28+G28+F28+E28</f>
         <v>0</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" ref="N28:N29" si="7">D28/100*(D28-K28)</f>
+        <f>D28/100*(D28-K28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K29:K31" si="6">J29+I29+H29+G29+F29+E29</f>
         <v>0</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N29:N30" si="7">D29/100*(D29-K29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30" s="5">
-        <f>D30/100*(D30-K30)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N31" s="5"/>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <f>D31/100*(D31-K31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E32" t="s">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G34" s="2">
         <v>42288</v>
       </c>
-      <c r="F33" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H33" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J33" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34">
-        <f>J34+I34+H34+G34+F34+E34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <f>D34/100*(D34-K34)</f>
-        <v>0</v>
+      <c r="H34" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I34" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J34" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K38" si="8">J35+I35+H35+G35+F35+E35</f>
+        <f>J35+I35+H35+G35+F35+E35</f>
         <v>0</v>
       </c>
       <c r="N35" s="5">
@@ -2266,49 +2275,62 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K36:K38" si="8">J36+I36+H36+G36+F36+E36</f>
         <v>0</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" ref="N36:N37" si="9">D36/100*(D36-K36)</f>
+        <f>D36/100*(D36-K36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N37:N38" si="9">D37/100*(D37-K37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
-        <f>D38/100*(D38-K38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <f>D39/100*(D39-K39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B45">
-        <f>K6+K7+K8+K9+K13+K14+K15+K16+K21+K22+K23+K27+K28+K29+K30+K34+K35+K36+K37+K38</f>
-        <v>19</v>
+      <c r="B46">
+        <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2319,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2362,22 +2384,22 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>42288</v>
+        <v>42257</v>
       </c>
       <c r="F5" s="2">
-        <v>42297</v>
+        <v>42264</v>
       </c>
       <c r="G5" s="2">
-        <v>42288</v>
+        <v>42271</v>
       </c>
       <c r="H5" s="2">
-        <v>42297</v>
+        <v>42278</v>
       </c>
       <c r="I5" s="2">
-        <v>42288</v>
+        <v>42285</v>
       </c>
       <c r="J5" s="2">
-        <v>42297</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -2385,75 +2407,78 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.5</v>
       </c>
       <c r="K6">
         <f>J6+I6+H6+G6+F6+E6</f>
-        <v>19</v>
+        <v>1.5</v>
       </c>
       <c r="N6" s="5">
         <f>D6/100*(D6-K6)</f>
-        <v>-0.9</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="K7">
         <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ref="N7:N9" si="1">D7/100*(D7-K7)</f>
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -2468,35 +2493,35 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>42288</v>
+        <v>42257</v>
       </c>
       <c r="F12" s="2">
-        <v>42297</v>
+        <v>42264</v>
       </c>
       <c r="G12" s="2">
-        <v>42288</v>
+        <v>42271</v>
       </c>
       <c r="H12" s="2">
-        <v>42297</v>
+        <v>42278</v>
       </c>
       <c r="I12" s="2">
-        <v>42288</v>
+        <v>42285</v>
       </c>
       <c r="J12" s="2">
-        <v>42297</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <f>J13+I13+H13+G13+F13+E13</f>
         <v>0</v>
@@ -2510,26 +2535,44 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
       <c r="K14">
-        <f t="shared" ref="K14:K16" si="2">J14+I14+H14+G14+F14+E14</f>
-        <v>0</v>
+        <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
+        <v>2.5</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" ref="N14:N16" si="3">D14/100*(D14-K14)</f>
-        <v>0</v>
+        <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
+      <c r="D15">
+        <v>2.4</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3.8400000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2549,232 +2592,234 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F20" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H20" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J20" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21">
-        <f>J21+I21+H21+G21+F21+E21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <f>D21/100*(D21-K21)</f>
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H21" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I21" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J21" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K23" si="4">J22+I22+H22+G22+F22+E22</f>
+        <f>J22+I22+H22+G22+F22+E22</f>
         <v>0</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" ref="N22:N23" si="5">D22/100*(D22-K22)</f>
+        <f>D22/100*(D22-K22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F26" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H26" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J26" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27">
-        <f>J27+I27+H27+G27+F27+E27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
-        <f>D27/100*(D27-K27)</f>
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F27" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G27" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H27" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I27" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J27" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K30" si="6">J28+I28+H28+G28+F28+E28</f>
+        <f>J28+I28+H28+G28+F28+E28</f>
         <v>0</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" ref="N28:N29" si="7">D28/100*(D28-K28)</f>
+        <f>D28/100*(D28-K28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K29:K31" si="6">J29+I29+H29+G29+F29+E29</f>
         <v>0</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N29:N30" si="7">D29/100*(D29-K29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30" s="5">
-        <f>D30/100*(D30-K30)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N31" s="5"/>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <f>D31/100*(D31-K31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E32" t="s">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F33" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H33" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J33" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34">
-        <f>J34+I34+H34+G34+F34+E34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <f>D34/100*(D34-K34)</f>
-        <v>0</v>
+      <c r="E34" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H34" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I34" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J34" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K38" si="8">J35+I35+H35+G35+F35+E35</f>
+        <f>J35+I35+H35+G35+F35+E35</f>
         <v>0</v>
       </c>
       <c r="N35" s="5">
@@ -2784,50 +2829,63 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K36:K39" si="8">J36+I36+H36+G36+F36+E36</f>
         <v>0</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" ref="N36:N37" si="9">D36/100*(D36-K36)</f>
+        <f>D36/100*(D36-K36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N37:N38" si="9">D37/100*(D37-K37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N38" s="5">
-        <f>D38/100*(D38-K38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <f>D39/100*(D39-K39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B45">
-        <f>K6+K7+K8+K9+K13+K14+K15+K16+K21+K22+K23+K27+K28+K29+K30+K34+K35+K36+K37+K38</f>
-        <v>19</v>
+      <c r="B46">
+        <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2837,10 +2895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2880,22 +2938,22 @@
         <v>13</v>
       </c>
       <c r="E5" s="2">
-        <v>42288</v>
+        <v>42257</v>
       </c>
       <c r="F5" s="2">
-        <v>42297</v>
+        <v>42264</v>
       </c>
       <c r="G5" s="2">
-        <v>42288</v>
+        <v>42271</v>
       </c>
       <c r="H5" s="2">
-        <v>42297</v>
+        <v>42278</v>
       </c>
       <c r="I5" s="2">
-        <v>42288</v>
+        <v>42285</v>
       </c>
       <c r="J5" s="2">
-        <v>42297</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -2903,40 +2961,24 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f>J6+I6+H6+G6+F6+E6</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N6" s="5">
         <f>D6/100*(D6-K6)</f>
-        <v>-0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="K7">
         <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
         <v>0</v>
@@ -2950,7 +2992,9 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2964,7 +3008,9 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2986,68 +3032,89 @@
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>42288</v>
+        <v>42257</v>
       </c>
       <c r="F12" s="2">
-        <v>42297</v>
+        <v>42264</v>
       </c>
       <c r="G12" s="2">
-        <v>42288</v>
+        <v>42271</v>
       </c>
       <c r="H12" s="2">
-        <v>42297</v>
+        <v>42278</v>
       </c>
       <c r="I12" s="2">
-        <v>42288</v>
+        <v>42285</v>
       </c>
       <c r="J12" s="2">
-        <v>42297</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
       <c r="K13">
         <f>J13+I13+H13+G13+F13+E13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="5">
         <f>D13/100*(D13-K13)</f>
-        <v>0</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="K14">
-        <f t="shared" ref="K14:K16" si="2">J14+I14+H14+G14+F14+E14</f>
-        <v>0</v>
+        <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
+        <v>3</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" ref="N14:N16" si="3">D14/100*(D14-K14)</f>
-        <v>0</v>
+        <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -3067,232 +3134,234 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F20" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H20" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I20" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J20" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21">
-        <f>J21+I21+H21+G21+F21+E21</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <f>D21/100*(D21-K21)</f>
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H21" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I21" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J21" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K24" si="4">J22+I22+H22+G22+F22+E22</f>
+        <f>J22+I22+H22+G22+F22+E22</f>
         <v>0</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" ref="N22:N23" si="5">D22/100*(D22-K22)</f>
+        <f>D22/100*(D22-K22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F26" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H26" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I26" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J26" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27">
-        <f>J27+I27+H27+G27+F27+E27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
-        <f>D27/100*(D27-K27)</f>
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F27" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G27" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H27" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I27" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J27" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K30" si="6">J28+I28+H28+G28+F28+E28</f>
+        <f>J28+I28+H28+G28+F28+E28</f>
         <v>0</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" ref="N28:N29" si="7">D28/100*(D28-K28)</f>
+        <f>D28/100*(D28-K28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K29:K31" si="6">J29+I29+H29+G29+F29+E29</f>
         <v>0</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N29:N30" si="7">D29/100*(D29-K29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N30" s="5">
-        <f>D30/100*(D30-K30)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N31" s="5"/>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <f>D31/100*(D31-K31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E32" t="s">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="F33" s="2">
-        <v>42297</v>
-      </c>
-      <c r="G33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H33" s="2">
-        <v>42297</v>
-      </c>
-      <c r="I33" s="2">
-        <v>42288</v>
-      </c>
-      <c r="J33" s="2">
-        <v>42297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34">
-        <f>J34+I34+H34+G34+F34+E34</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <f>D34/100*(D34-K34)</f>
-        <v>0</v>
+      <c r="E34" s="2">
+        <v>42257</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42264</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42271</v>
+      </c>
+      <c r="H34" s="2">
+        <v>42278</v>
+      </c>
+      <c r="I34" s="2">
+        <v>42285</v>
+      </c>
+      <c r="J34" s="2">
+        <v>42292</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K38" si="8">J35+I35+H35+G35+F35+E35</f>
+        <f>J35+I35+H35+G35+F35+E35</f>
         <v>0</v>
       </c>
       <c r="N35" s="5">
@@ -3302,50 +3371,63 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K36">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K36:K39" si="8">J36+I36+H36+G36+F36+E36</f>
         <v>0</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" ref="N36:N37" si="9">D36/100*(D36-K36)</f>
+        <f>D36/100*(D36-K36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N37:N38" si="9">D37/100*(D37-K37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N38" s="5">
-        <f>D38/100*(D38-K38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <f>D39/100*(D39-K39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B45">
-        <f>K6+K7+K8+K9+K13+K14+K15+K16+K21+K22+K23+K27+K28+K29+K30+K34+K35+K36+K37+K38</f>
-        <v>19</v>
+      <c r="B46">
+        <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung2.0.xlsx
+++ b/Zeitaufzeichnung2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\TGM\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limbeck\Desktop\Schule 15-16\Projekt\Schools &amp; Quakes\School &amp; Quakes Projekt-Repository\School-Quakes\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="4" r:id="rId1"/>
@@ -244,7 +244,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -362,13 +361,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,7 +394,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1361,7 +1359,7 @@
       </c>
       <c r="O3">
         <f>'Borsos Robert'!B46</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1385,7 +1383,7 @@
       </c>
       <c r="O5">
         <f>'Limbeck Markus'!B46</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1513,11 +1511,11 @@
       </c>
       <c r="E15">
         <f>'Borsos Robert'!K15+'Frassl Gabriel'!K15+'Limbeck Markus'!K15</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="5">
         <f>AVERAGE('Borsos Robert'!N15,'Frassl Gabriel'!N15,'Limbeck Markus'!N15)</f>
-        <v>-5.3633333333333331E-2</v>
+        <v>-7.1966666666666665E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1804,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1952,7 +1950,7 @@
         <v>42271</v>
       </c>
       <c r="H12" s="2">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="I12" s="2">
         <v>42285</v>
@@ -2009,13 +2007,16 @@
       <c r="G15">
         <v>1.5</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>-6.25E-2</v>
+        <v>-8.7500000000000008E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -2330,7 +2331,7 @@
       </c>
       <c r="B46">
         <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3045,7 +3046,7 @@
         <v>42271</v>
       </c>
       <c r="H12" s="2">
-        <v>42278</v>
+        <v>42308</v>
       </c>
       <c r="I12" s="2">
         <v>42285</v>
@@ -3108,13 +3109,16 @@
       <c r="G15">
         <v>2</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -3427,7 +3431,7 @@
       </c>
       <c r="B46">
         <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung2.0.xlsx
+++ b/Zeitaufzeichnung2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
   <si>
     <t>Arbeit:</t>
   </si>
@@ -168,16 +168,40 @@
   </si>
   <si>
     <t>Besprechungsprotkoll</t>
+  </si>
+  <si>
+    <t>Entwurf der Applikation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,6 +236,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -362,13 +391,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>25.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,7 +1390,7 @@
       </c>
       <c r="O3">
         <f>'Borsos Robert'!B46</f>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1373,7 +1402,7 @@
       </c>
       <c r="O4">
         <f>'Frassl Gabriel'!B46</f>
-        <v>15</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1385,7 +1414,7 @@
       </c>
       <c r="O5">
         <f>'Limbeck Markus'!B46</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1416,11 +1445,11 @@
       </c>
       <c r="E7">
         <f>'Borsos Robert'!K7+'Frassl Gabriel'!K7+'Limbeck Markus'!K7</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5">
         <f>AVERAGE('Borsos Robert'!N7,'Frassl Gabriel'!N7,'Limbeck Markus'!N7)</f>
-        <v>1.3333333333333334E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1433,11 +1462,11 @@
       </c>
       <c r="E8">
         <f>'Borsos Robert'!K8+'Frassl Gabriel'!K8+'Limbeck Markus'!K8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="5">
         <f>AVERAGE('Borsos Robert'!N8,'Frassl Gabriel'!N8,'Limbeck Markus'!N8)</f>
-        <v>0.10666666666666667</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1496,11 +1525,11 @@
       </c>
       <c r="E14">
         <f>'Borsos Robert'!K14+'Frassl Gabriel'!K14+'Limbeck Markus'!K14</f>
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="G14" s="5">
         <f>AVERAGE('Borsos Robert'!N14,'Frassl Gabriel'!N14,'Limbeck Markus'!N14)</f>
-        <v>-2.3333333333333334E-2</v>
+        <v>-4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1509,15 +1538,15 @@
       </c>
       <c r="D15">
         <f>'Borsos Robert'!D15+'Frassl Gabriel'!D15+'Limbeck Markus'!D15</f>
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="E15">
         <f>'Borsos Robert'!K15+'Frassl Gabriel'!K15+'Limbeck Markus'!K15</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G15" s="5">
         <f>AVERAGE('Borsos Robert'!N15,'Frassl Gabriel'!N15,'Limbeck Markus'!N15)</f>
-        <v>-5.3633333333333331E-2</v>
+        <v>-9.0300000000000005E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1572,15 +1601,15 @@
       </c>
       <c r="D21">
         <f>'Borsos Robert'!D22+'Frassl Gabriel'!D22+'Limbeck Markus'!D22</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <f>'Borsos Robert'!K22+'Frassl Gabriel'!K22+'Limbeck Markus'!K22</f>
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="G21" s="5">
         <f>AVERAGE('Borsos Robert'!N22,'Frassl Gabriel'!N22,'Limbeck Markus'!N22)</f>
-        <v>0</v>
+        <v>5.733333333333334E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1589,7 +1618,7 @@
       </c>
       <c r="D22">
         <f>'Borsos Robert'!D23+'Frassl Gabriel'!D23+'Limbeck Markus'!D23</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <f>'Borsos Robert'!K23+'Frassl Gabriel'!K23+'Limbeck Markus'!K23</f>
@@ -1597,7 +1626,7 @@
       </c>
       <c r="G22" s="5">
         <f>AVERAGE('Borsos Robert'!N23,'Frassl Gabriel'!N23,'Limbeck Markus'!N23)</f>
-        <v>0</v>
+        <v>0.16333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1606,15 +1635,15 @@
       </c>
       <c r="D23">
         <f>'Borsos Robert'!D24+'Frassl Gabriel'!D24+'Limbeck Markus'!D24</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <f>'Borsos Robert'!K24+'Frassl Gabriel'!K24+'Limbeck Markus'!K24</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G23" s="5">
         <f>AVERAGE('Borsos Robert'!N24,'Frassl Gabriel'!N24,'Limbeck Markus'!N24)</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1804,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1844,32 +1873,18 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G5" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J5" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="K6">
         <f>J6+I6+H6+G6+F6+E6</f>
         <v>0</v>
@@ -1883,9 +1898,7 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="K7">
         <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
         <v>0</v>
@@ -1899,9 +1912,7 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1915,9 +1926,7 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1942,30 +1951,48 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <v>42257</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="10">
         <v>42264</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="10">
         <v>42271</v>
       </c>
-      <c r="H12" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I12" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H12" s="10">
+        <v>42299</v>
+      </c>
+      <c r="I12" s="10">
         <v>42292</v>
+      </c>
+      <c r="J12" s="10">
+        <v>42313</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13">
@@ -1981,47 +2008,95 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>2.5</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
         <v>3.5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>1.5</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>-6.25E-2</v>
+        <v>-0.1125</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
       <c r="K16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2035,6 +2110,27 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
       <c r="K17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2048,19 +2144,34 @@
       <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="D18">
-        <v>0.8</v>
-      </c>
-      <c r="J18">
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
         <v>1</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="3"/>
-        <v>-1.5999999999999996E-3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2078,32 +2189,43 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F21" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G21" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H21" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I21" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="E21" s="10">
+        <v>42287</v>
+      </c>
+      <c r="F21" s="10">
+        <v>42299</v>
+      </c>
+      <c r="G21" s="10">
         <v>42292</v>
       </c>
+      <c r="H21" s="10">
+        <v>42305</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
       </c>
       <c r="K22">
         <f>J22+I22+H22+G22+F22+E22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="5">
         <f>D22/100*(D22-K22)</f>
@@ -2114,26 +2236,56 @@
       <c r="B23" t="s">
         <v>20</v>
       </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
       <c r="K23">
-        <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
+        <f>J23+I23+H23+G23+F23+E23</f>
         <v>0</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
-        <v>0</v>
+        <f t="shared" ref="N23:N24" si="4">D23/100*(D23-K23)</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="D24" s="7">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
       <c r="K24">
+        <f>J24+I24+H24+G24+F24+E24</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2151,24 +2303,12 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F27" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G27" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H27" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I27" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J27" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -2188,11 +2328,11 @@
         <v>24</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:K31" si="6">J29+I29+H29+G29+F29+E29</f>
+        <f t="shared" ref="K29:K31" si="5">J29+I29+H29+G29+F29+E29</f>
         <v>0</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" ref="N29:N30" si="7">D29/100*(D29-K29)</f>
+        <f t="shared" ref="N29:N30" si="6">D29/100*(D29-K29)</f>
         <v>0</v>
       </c>
     </row>
@@ -2201,11 +2341,11 @@
         <v>25</v>
       </c>
       <c r="K30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2214,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N31" s="5">
@@ -2241,24 +2381,12 @@
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F34" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G34" s="2">
-        <v>42288</v>
-      </c>
-      <c r="H34" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I34" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J34" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
@@ -2278,7 +2406,7 @@
         <v>29</v>
       </c>
       <c r="K36">
-        <f t="shared" ref="K36:K38" si="8">J36+I36+H36+G36+F36+E36</f>
+        <f t="shared" ref="K36:K38" si="7">J36+I36+H36+G36+F36+E36</f>
         <v>0</v>
       </c>
       <c r="N36" s="5">
@@ -2291,11 +2419,11 @@
         <v>30</v>
       </c>
       <c r="K37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" ref="N37:N38" si="9">D37/100*(D37-K37)</f>
+        <f t="shared" ref="N37:N38" si="8">D37/100*(D37-K37)</f>
         <v>0</v>
       </c>
     </row>
@@ -2304,11 +2432,11 @@
         <v>31</v>
       </c>
       <c r="K38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2458,7 @@
       </c>
       <c r="B46">
         <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2343,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2383,22 +2511,22 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>42257</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="10">
         <v>42264</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="10">
         <v>42271</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="10">
         <v>42278</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="10">
         <v>42285</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="10">
         <v>42292</v>
       </c>
     </row>
@@ -2406,11 +2534,26 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="8">
         <v>1.5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
       </c>
       <c r="K6">
         <f>J6+I6+H6+G6+F6+E6</f>
@@ -2425,52 +2568,94 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ref="N7:N9" si="1">D7/100*(D7-K7)</f>
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="1"/>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -2496,22 +2681,22 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <v>42257</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="10">
         <v>42264</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="10">
         <v>42271</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="10">
         <v>42278</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="10">
         <v>42285</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="10">
         <v>42292</v>
       </c>
     </row>
@@ -2519,7 +2704,25 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13">
@@ -2535,14 +2738,26 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>0.5</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
@@ -2557,14 +2772,26 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>2.4</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
         <v>3</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
@@ -2579,6 +2806,27 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
       <c r="K16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2592,6 +2840,27 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
       <c r="K17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2605,16 +2874,34 @@
       <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.1</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -2632,62 +2919,103 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F21" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G21" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H21" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I21" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="E21" s="10">
+        <v>42287</v>
+      </c>
+      <c r="F21" s="10">
+        <v>42299</v>
+      </c>
+      <c r="G21" s="10">
         <v>42292</v>
       </c>
+      <c r="H21" s="10">
+        <v>42305</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.8</v>
       </c>
       <c r="K22">
         <f>J22+I22+H22+G22+F22+E22</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="N22" s="5">
         <f>D22/100*(D22-K22)</f>
-        <v>0</v>
+        <v>7.2000000000000008E-2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
       <c r="K23">
         <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
         <v>0</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="D24" s="7">
+        <v>7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.21000000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2705,24 +3033,12 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F27" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G27" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H27" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I27" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J27" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -2795,24 +3111,12 @@
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F34" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G34" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H34" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I34" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J34" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
@@ -2885,7 +3189,7 @@
       </c>
       <c r="B46">
         <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
-        <v>15</v>
+        <v>25.8</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2937,32 +3241,18 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G5" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J5" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="K6">
         <f>J6+I6+H6+G6+F6+E6</f>
         <v>0</v>
@@ -2976,9 +3266,7 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="K7">
         <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
         <v>0</v>
@@ -2992,9 +3280,7 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3008,9 +3294,7 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3035,34 +3319,49 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <v>42257</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="10">
         <v>42264</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="10">
         <v>42271</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="10">
         <v>42278</v>
       </c>
-      <c r="I12" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="10">
         <v>42292</v>
+      </c>
+      <c r="J12" s="10">
+        <v>42313</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>1.5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
       </c>
       <c r="K13">
         <f>J13+I13+H13+G13+F13+E13</f>
@@ -3077,50 +3376,95 @@
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
-        <v>-0.06</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
       <c r="K16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3134,6 +3478,27 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
       <c r="K17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3147,16 +3512,34 @@
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.2</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.999999999999998E-4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -3174,62 +3557,103 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F21" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G21" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H21" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I21" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="E21" s="10">
+        <v>42287</v>
+      </c>
+      <c r="F21" s="10">
+        <v>42299</v>
+      </c>
+      <c r="G21" s="10">
         <v>42292</v>
       </c>
+      <c r="H21" s="10">
+        <v>42305</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
       </c>
       <c r="K22">
         <f>J22+I22+H22+G22+F22+E22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="5">
         <f>D22/100*(D22-K22)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
+      <c r="D23" s="7">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
       <c r="K23">
         <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
         <v>0</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -3247,24 +3671,12 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F27" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G27" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H27" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I27" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J27" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
@@ -3337,24 +3749,12 @@
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2">
-        <v>42257</v>
-      </c>
-      <c r="F34" s="2">
-        <v>42264</v>
-      </c>
-      <c r="G34" s="2">
-        <v>42271</v>
-      </c>
-      <c r="H34" s="2">
-        <v>42278</v>
-      </c>
-      <c r="I34" s="2">
-        <v>42285</v>
-      </c>
-      <c r="J34" s="2">
-        <v>42292</v>
-      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
@@ -3427,7 +3827,7 @@
       </c>
       <c r="B46">
         <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung2.0.xlsx
+++ b/Zeitaufzeichnung2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="4" r:id="rId1"/>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1426,11 +1426,11 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>'Borsos Robert'!K6+'Frassl Gabriel'!K6+'Limbeck Markus'!K6</f>
+        <f>'Borsos Robert'!L6+'Frassl Gabriel'!L6+'Limbeck Markus'!K6</f>
         <v>1.5</v>
       </c>
       <c r="G6" s="5">
-        <f>AVERAGE('Borsos Robert'!N6,'Frassl Gabriel'!N6,'Limbeck Markus'!N6)</f>
+        <f>AVERAGE('Borsos Robert'!O6,'Frassl Gabriel'!O6,'Limbeck Markus'!N6)</f>
         <v>-1.6666666666666668E-3</v>
       </c>
       <c r="H6" s="5"/>
@@ -1444,11 +1444,11 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>'Borsos Robert'!K7+'Frassl Gabriel'!K7+'Limbeck Markus'!K7</f>
+        <f>'Borsos Robert'!L7+'Frassl Gabriel'!L7+'Limbeck Markus'!K7</f>
         <v>4</v>
       </c>
       <c r="G7" s="5">
-        <f>AVERAGE('Borsos Robert'!N7,'Frassl Gabriel'!N7,'Limbeck Markus'!N7)</f>
+        <f>AVERAGE('Borsos Robert'!O7,'Frassl Gabriel'!O7,'Limbeck Markus'!N7)</f>
         <v>0</v>
       </c>
     </row>
@@ -1461,11 +1461,11 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <f>'Borsos Robert'!K8+'Frassl Gabriel'!K8+'Limbeck Markus'!K8</f>
+        <f>'Borsos Robert'!L8+'Frassl Gabriel'!L8+'Limbeck Markus'!K8</f>
         <v>5</v>
       </c>
       <c r="G8" s="5">
-        <f>AVERAGE('Borsos Robert'!N8,'Frassl Gabriel'!N8,'Limbeck Markus'!N8)</f>
+        <f>AVERAGE('Borsos Robert'!O8,'Frassl Gabriel'!O8,'Limbeck Markus'!N8)</f>
         <v>0.08</v>
       </c>
     </row>
@@ -1478,11 +1478,11 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>'Borsos Robert'!K9+'Frassl Gabriel'!K9+'Limbeck Markus'!K9</f>
+        <f>'Borsos Robert'!L9+'Frassl Gabriel'!L9+'Limbeck Markus'!K9</f>
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <f>AVERAGE('Borsos Robert'!N9,'Frassl Gabriel'!N9,'Limbeck Markus'!N9)</f>
+        <f>AVERAGE('Borsos Robert'!O9,'Frassl Gabriel'!O9,'Limbeck Markus'!N9)</f>
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
@@ -1507,11 +1507,11 @@
         <v>1.5</v>
       </c>
       <c r="E13">
-        <f>'Borsos Robert'!K13+'Frassl Gabriel'!K13+'Limbeck Markus'!K13</f>
+        <f>'Borsos Robert'!L13+'Frassl Gabriel'!L13+'Limbeck Markus'!K13</f>
         <v>2</v>
       </c>
       <c r="G13" s="5">
-        <f>AVERAGE('Borsos Robert'!N13,'Frassl Gabriel'!N13,'Limbeck Markus'!N13)</f>
+        <f>AVERAGE('Borsos Robert'!O13,'Frassl Gabriel'!O13,'Limbeck Markus'!N13)</f>
         <v>-2.5000000000000001E-3</v>
       </c>
     </row>
@@ -1524,11 +1524,11 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <f>'Borsos Robert'!K14+'Frassl Gabriel'!K14+'Limbeck Markus'!K14</f>
+        <f>'Borsos Robert'!L14+'Frassl Gabriel'!L14+'Limbeck Markus'!K14</f>
         <v>13.5</v>
       </c>
       <c r="G14" s="5">
-        <f>AVERAGE('Borsos Robert'!N14,'Frassl Gabriel'!N14,'Limbeck Markus'!N14)</f>
+        <f>AVERAGE('Borsos Robert'!O14,'Frassl Gabriel'!O14,'Limbeck Markus'!N14)</f>
         <v>-4.9999999999999996E-2</v>
       </c>
     </row>
@@ -1541,11 +1541,11 @@
         <v>8.9</v>
       </c>
       <c r="E15">
-        <f>'Borsos Robert'!K15+'Frassl Gabriel'!K15+'Limbeck Markus'!K15</f>
+        <f>'Borsos Robert'!L15+'Frassl Gabriel'!L15+'Limbeck Markus'!K15</f>
         <v>18</v>
       </c>
       <c r="G15" s="5">
-        <f>AVERAGE('Borsos Robert'!N15,'Frassl Gabriel'!N15,'Limbeck Markus'!N15)</f>
+        <f>AVERAGE('Borsos Robert'!O15,'Frassl Gabriel'!O15,'Limbeck Markus'!N15)</f>
         <v>-9.0300000000000005E-2</v>
       </c>
     </row>
@@ -1558,11 +1558,11 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f>'Borsos Robert'!K16+'Frassl Gabriel'!K16+'Limbeck Markus'!K16</f>
+        <f>'Borsos Robert'!L16+'Frassl Gabriel'!L16+'Limbeck Markus'!K16</f>
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <f>AVERAGE('Borsos Robert'!N16,'Frassl Gabriel'!N16,'Limbeck Markus'!N16)</f>
+        <f>AVERAGE('Borsos Robert'!O16,'Frassl Gabriel'!O16,'Limbeck Markus'!N16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1575,11 +1575,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f>'Borsos Robert'!K17+'Frassl Gabriel'!K17+'Limbeck Markus'!K17</f>
+        <f>'Borsos Robert'!L17+'Frassl Gabriel'!L17+'Limbeck Markus'!K17</f>
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <f>AVERAGE('Borsos Robert'!N17,'Frassl Gabriel'!N17,'Limbeck Markus'!N17)</f>
+        <f>AVERAGE('Borsos Robert'!O17,'Frassl Gabriel'!O17,'Limbeck Markus'!N17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1604,11 +1604,11 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <f>'Borsos Robert'!K22+'Frassl Gabriel'!K22+'Limbeck Markus'!K22</f>
+        <f>'Borsos Robert'!L22+'Frassl Gabriel'!L22+'Limbeck Markus'!K22</f>
         <v>10.8</v>
       </c>
       <c r="G21" s="5">
-        <f>AVERAGE('Borsos Robert'!N22,'Frassl Gabriel'!N22,'Limbeck Markus'!N22)</f>
+        <f>AVERAGE('Borsos Robert'!O22,'Frassl Gabriel'!O22,'Limbeck Markus'!N22)</f>
         <v>5.733333333333334E-2</v>
       </c>
     </row>
@@ -1621,11 +1621,11 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <f>'Borsos Robert'!K23+'Frassl Gabriel'!K23+'Limbeck Markus'!K23</f>
+        <f>'Borsos Robert'!L23+'Frassl Gabriel'!L23+'Limbeck Markus'!K23</f>
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <f>AVERAGE('Borsos Robert'!N23,'Frassl Gabriel'!N23,'Limbeck Markus'!N23)</f>
+        <f>AVERAGE('Borsos Robert'!O23,'Frassl Gabriel'!O23,'Limbeck Markus'!N23)</f>
         <v>0.16333333333333333</v>
       </c>
     </row>
@@ -1638,11 +1638,11 @@
         <v>16</v>
       </c>
       <c r="E23">
-        <f>'Borsos Robert'!K24+'Frassl Gabriel'!K24+'Limbeck Markus'!K24</f>
+        <f>'Borsos Robert'!L24+'Frassl Gabriel'!L24+'Limbeck Markus'!K24</f>
         <v>7</v>
       </c>
       <c r="G23" s="5">
-        <f>AVERAGE('Borsos Robert'!N24,'Frassl Gabriel'!N24,'Limbeck Markus'!N24)</f>
+        <f>AVERAGE('Borsos Robert'!O24,'Frassl Gabriel'!O24,'Limbeck Markus'!N24)</f>
         <v>0.17</v>
       </c>
     </row>
@@ -1667,11 +1667,11 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f>'Borsos Robert'!K28+'Frassl Gabriel'!K28+'Limbeck Markus'!K28</f>
+        <f>'Borsos Robert'!L28+'Frassl Gabriel'!L28+'Limbeck Markus'!K28</f>
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f>AVERAGE('Borsos Robert'!N28,'Frassl Gabriel'!N28,'Limbeck Markus'!N28)</f>
+        <f>AVERAGE('Borsos Robert'!O28,'Frassl Gabriel'!O28,'Limbeck Markus'!N28)</f>
         <v>0</v>
       </c>
     </row>
@@ -1684,11 +1684,11 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f>'Borsos Robert'!K29+'Frassl Gabriel'!K29+'Limbeck Markus'!K29</f>
+        <f>'Borsos Robert'!L29+'Frassl Gabriel'!L29+'Limbeck Markus'!K29</f>
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f>AVERAGE('Borsos Robert'!N29,'Frassl Gabriel'!N29,'Limbeck Markus'!N29)</f>
+        <f>AVERAGE('Borsos Robert'!O29,'Frassl Gabriel'!O29,'Limbeck Markus'!N29)</f>
         <v>0</v>
       </c>
     </row>
@@ -1701,11 +1701,11 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f>'Borsos Robert'!K30+'Frassl Gabriel'!K30+'Limbeck Markus'!K30</f>
+        <f>'Borsos Robert'!L30+'Frassl Gabriel'!L30+'Limbeck Markus'!K30</f>
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <f>AVERAGE('Borsos Robert'!N30,'Frassl Gabriel'!N30,'Limbeck Markus'!N30)</f>
+        <f>AVERAGE('Borsos Robert'!O30,'Frassl Gabriel'!O30,'Limbeck Markus'!N30)</f>
         <v>0</v>
       </c>
     </row>
@@ -1718,11 +1718,11 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f>'Borsos Robert'!K31+'Frassl Gabriel'!K31+'Limbeck Markus'!K31</f>
+        <f>'Borsos Robert'!L31+'Frassl Gabriel'!L31+'Limbeck Markus'!K31</f>
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <f>AVERAGE('Borsos Robert'!N31,'Frassl Gabriel'!N31,'Limbeck Markus'!N31)</f>
+        <f>AVERAGE('Borsos Robert'!O31,'Frassl Gabriel'!O31,'Limbeck Markus'!N31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f>'Borsos Robert'!K35+'Frassl Gabriel'!K35+'Limbeck Markus'!K35</f>
+        <f>'Borsos Robert'!L35+'Frassl Gabriel'!L35+'Limbeck Markus'!K35</f>
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f>AVERAGE('Borsos Robert'!N35,'Frassl Gabriel'!N35,'Limbeck Markus'!N35)</f>
+        <f>AVERAGE('Borsos Robert'!O35,'Frassl Gabriel'!O35,'Limbeck Markus'!N35)</f>
         <v>0</v>
       </c>
     </row>
@@ -1764,11 +1764,11 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f>'Borsos Robert'!K36+'Frassl Gabriel'!K36+'Limbeck Markus'!K36</f>
+        <f>'Borsos Robert'!L36+'Frassl Gabriel'!L36+'Limbeck Markus'!K36</f>
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f>AVERAGE('Borsos Robert'!N36,'Frassl Gabriel'!N36,'Limbeck Markus'!N36)</f>
+        <f>AVERAGE('Borsos Robert'!O36,'Frassl Gabriel'!O36,'Limbeck Markus'!N36)</f>
         <v>0</v>
       </c>
     </row>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f>'Borsos Robert'!K37+'Frassl Gabriel'!K37+'Limbeck Markus'!K37</f>
+        <f>'Borsos Robert'!L37+'Frassl Gabriel'!L37+'Limbeck Markus'!K37</f>
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f>AVERAGE('Borsos Robert'!N37,'Frassl Gabriel'!N37,'Limbeck Markus'!N37)</f>
+        <f>AVERAGE('Borsos Robert'!O37,'Frassl Gabriel'!O37,'Limbeck Markus'!N37)</f>
         <v>0</v>
       </c>
     </row>
@@ -1798,11 +1798,11 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f>'Borsos Robert'!K38+'Frassl Gabriel'!K38+'Limbeck Markus'!K38</f>
+        <f>'Borsos Robert'!L38+'Frassl Gabriel'!L38+'Limbeck Markus'!K38</f>
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f>AVERAGE('Borsos Robert'!N38,'Frassl Gabriel'!N38,'Limbeck Markus'!N38)</f>
+        <f>AVERAGE('Borsos Robert'!O38,'Frassl Gabriel'!O38,'Limbeck Markus'!N38)</f>
         <v>0</v>
       </c>
     </row>
@@ -1815,11 +1815,11 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>'Borsos Robert'!K39+'Frassl Gabriel'!K39+'Limbeck Markus'!K39</f>
+        <f>'Borsos Robert'!L39+'Frassl Gabriel'!L39+'Limbeck Markus'!K39</f>
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f>AVERAGE('Borsos Robert'!N39,'Frassl Gabriel'!N39,'Limbeck Markus'!N39)</f>
+        <f>AVERAGE('Borsos Robert'!O39,'Frassl Gabriel'!O39,'Limbeck Markus'!N39)</f>
         <v>0</v>
       </c>
     </row>
@@ -1831,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1842,31 +1842,31 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1880,71 +1880,71 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="K6">
+      <c r="L6">
         <f>J6+I6+H6+G6+F6+E6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <f>D6/100*(D6-K6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="5">
+        <f>D6/100*(D6-L6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="K7">
-        <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ref="N7:N9" si="1">D7/100*(D7-K7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f>J7+I7+H7+G7+F7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" ref="O7:O9" si="0">D7/100*(D7-L7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="K8">
+      <c r="L8">
+        <f>J8+I8+H8+G8+F8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="K9">
+      <c r="L9">
+        <f>J9+I9+H9+G9+F9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>42313</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1995,16 +1995,16 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>J13+I13+H13+G13+F13+E13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <f>D13/100*(D13-K13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="5">
+        <f>D13/100*(D13-L13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -2029,16 +2029,16 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
+      <c r="L14">
+        <f>J14+I14+H14+G14+F14+E14</f>
         <v>7</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
+      <c r="O14" s="5">
+        <f t="shared" ref="O14:O18" si="1">D14/100*(D14-L14)</f>
         <v>-0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -2063,16 +2063,16 @@
       <c r="J15" s="6">
         <v>2</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
+      <c r="L15">
+        <f>J15+I15+H15+G15+F15+E15</f>
         <v>7</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" si="3"/>
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
         <v>-0.1125</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2097,16 +2097,16 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <f>J16+I16+H16+G16+F16+E16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -2131,16 +2131,16 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <f>J17+I17+H17+G17+F17+E17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -2165,24 +2165,24 @@
       <c r="J18" s="6">
         <v>1</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
+      <c r="L18">
+        <f>J18+I18+H18+G18+F18+E18</f>
         <v>3</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="3"/>
+      <c r="O18" s="5">
+        <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -2223,16 +2223,16 @@
       <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f>J22+I22+H22+G22+F22+E22</f>
         <v>3</v>
       </c>
-      <c r="N22" s="5">
-        <f>D22/100*(D22-K22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22" s="5">
+        <f>D22/100*(D22-L22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -2251,16 +2251,16 @@
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f>J23+I23+H23+G23+F23+E23</f>
         <v>0</v>
       </c>
-      <c r="N23" s="5">
-        <f t="shared" ref="N23:N24" si="4">D23/100*(D23-K23)</f>
+      <c r="O23" s="5">
+        <f t="shared" ref="O23:O24" si="2">D23/100*(D23-L23)</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -2279,24 +2279,24 @@
       <c r="H24" s="6">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f>J24+I24+H24+G24+F24+E24</f>
         <v>2</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="4"/>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -2310,71 +2310,71 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f>J28+I28+H28+G28+F28+E28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="5">
-        <f>D28/100*(D28-K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" s="5">
+        <f>D28/100*(D28-L28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="K29">
-        <f t="shared" ref="K29:K31" si="5">J29+I29+H29+G29+F29+E29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" ref="N29:N30" si="6">D29/100*(D29-K29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f>J29+I29+H29+G29+F29+E29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" ref="O29:O30" si="3">D29/100*(D29-L29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <f>J30+I30+H30+G30+F30+E30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <f>D31/100*(D31-K31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f>J31+I31+H31+G31+F31+E31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f>D31/100*(D31-L31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2388,76 +2388,76 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f>J35+I35+H35+G35+F35+E35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="5">
-        <f>D35/100*(D35-K35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35" s="5">
+        <f>D35/100*(D35-L35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="K36">
-        <f t="shared" ref="K36:K38" si="7">J36+I36+H36+G36+F36+E36</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <f>D36/100*(D36-K36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <f>J36+I36+H36+G36+F36+E36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <f>D36/100*(D36-L36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="5">
-        <f t="shared" ref="N37:N38" si="8">D37/100*(D37-K37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <f>J37+I37+H37+G37+F37+E37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" ref="O37:O38" si="4">D37/100*(D37-L37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <f>J38+I38+H38+G38+F38+E38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <f>D39/100*(D39-K39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <f>D39/100*(D39-L39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46">
-        <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
+        <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
         <v>19</v>
       </c>
     </row>
@@ -2469,10 +2469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2480,31 +2480,31 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>42292</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2555,16 +2555,16 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>J6+I6+H6+G6+F6+E6</f>
         <v>1.5</v>
       </c>
-      <c r="N6" s="5">
-        <f>D6/100*(D6-K6)</f>
+      <c r="O6" s="5">
+        <f>D6/100*(D6-L6)</f>
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -2589,16 +2589,16 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
+      <c r="L7">
+        <f>J7+I7+H7+G7+F7+E7</f>
         <v>4</v>
       </c>
-      <c r="N7" s="5">
-        <f t="shared" ref="N7:N9" si="1">D7/100*(D7-K7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7" s="5">
+        <f>D7/100*(D7-L7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2623,16 +2623,16 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
+      <c r="L8">
+        <f>J8+I8+H8+G8+F8+E8</f>
         <v>5</v>
       </c>
-      <c r="N8" s="5">
-        <f t="shared" si="1"/>
+      <c r="O8" s="5">
+        <f>D8/100*(D8-L8)</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -2657,24 +2657,24 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="1"/>
+      <c r="L9">
+        <f>J9+I9+H9+G9+F9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f>D9/100*(D9-L9)</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>42292</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -2725,16 +2725,16 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>J13+I13+H13+G13+F13+E13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <f>D13/100*(D13-K13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13" s="5">
+        <f>D13/100*(D13-L13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -2759,16 +2759,16 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
+      <c r="L14">
+        <f>J14+I14+H14+G14+F14+E14</f>
         <v>2.5</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
+      <c r="O14" s="5">
+        <f>D14/100*(D14-L14)</f>
         <v>-0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -2793,16 +2793,16 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
+      <c r="L15">
+        <f>J15+I15+H15+G15+F15+E15</f>
         <v>4</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" si="3"/>
+      <c r="O15" s="5">
+        <f>D15/100*(D15-L15)</f>
         <v>-3.8400000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2827,16 +2827,16 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <f>J16+I16+H16+G16+F16+E16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f>D16/100*(D16-L16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -2861,16 +2861,16 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <f>J17+I17+H17+G17+F17+E17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f>D17/100*(D17-L17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -2895,24 +2895,24 @@
       <c r="J18" s="6">
         <v>0.1</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
+      <c r="L18">
+        <f>J18+I18+H18+G18+F18+E18</f>
         <v>0.1</v>
       </c>
-      <c r="N18" s="5">
-        <f t="shared" si="3"/>
+      <c r="O18" s="5">
+        <f>D18/100*(D18-L18)</f>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -2953,16 +2953,16 @@
       <c r="H22" s="6">
         <v>0.8</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f>J22+I22+H22+G22+F22+E22</f>
         <v>4.8</v>
       </c>
-      <c r="N22" s="5">
-        <f>D22/100*(D22-K22)</f>
+      <c r="O22" s="5">
+        <f>D22/100*(D22-L22)</f>
         <v>7.2000000000000008E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -2981,16 +2981,16 @@
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="K23">
-        <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
+      <c r="L23">
+        <f>J23+I23+H23+G23+F23+E23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f>D23/100*(D23-L23)</f>
         <v>0.09</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3009,24 +3009,24 @@
       <c r="H24" s="6">
         <v>3</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
+      <c r="L24">
+        <f>J24+I24+H24+G24+F24+E24</f>
         <v>4</v>
       </c>
-      <c r="N24" s="5">
-        <f t="shared" si="5"/>
+      <c r="O24" s="5">
+        <f>D24/100*(D24-L24)</f>
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3040,71 +3040,71 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f>J28+I28+H28+G28+F28+E28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="5">
-        <f>D28/100*(D28-K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" s="5">
+        <f>D28/100*(D28-L28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="K29">
-        <f t="shared" ref="K29:K31" si="6">J29+I29+H29+G29+F29+E29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" ref="N29:N30" si="7">D29/100*(D29-K29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f>J29+I29+H29+G29+F29+E29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f>D29/100*(D29-L29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <f>J30+I30+H30+G30+F30+E30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f>D30/100*(D30-L30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <f>D31/100*(D31-K31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f>J31+I31+H31+G31+F31+E31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f>D31/100*(D31-L31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3118,77 +3118,77 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f>J35+I35+H35+G35+F35+E35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="5">
-        <f>D35/100*(D35-K35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35" s="5">
+        <f>D35/100*(D35-L35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="K36">
-        <f t="shared" ref="K36:K39" si="8">J36+I36+H36+G36+F36+E36</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <f>D36/100*(D36-K36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <f>J36+I36+H36+G36+F36+E36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <f>D36/100*(D36-L36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="5">
-        <f t="shared" ref="N37:N38" si="9">D37/100*(D37-K37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <f>J37+I37+H37+G37+F37+E37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <f>D37/100*(D37-L37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <f>J38+I38+H38+G38+F38+E38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <f>D38/100*(D38-L38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <f>D39/100*(D39-K39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <f>J39+I39+H39+G39+F39+E39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <f>D39/100*(D39-L39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46">
-        <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
+        <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
         <v>25.8</v>
       </c>
     </row>

--- a/Zeitaufzeichnung2.0.xlsx
+++ b/Zeitaufzeichnung2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="4" r:id="rId1"/>
@@ -391,13 +391,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.8</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="O3">
         <f>'Borsos Robert'!B46</f>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="O4">
         <f>'Frassl Gabriel'!B46</f>
-        <v>25.8</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="O5">
         <f>'Limbeck Markus'!B46</f>
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -1426,11 +1426,11 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>'Borsos Robert'!L6+'Frassl Gabriel'!L6+'Limbeck Markus'!K6</f>
+        <f>'Borsos Robert'!L6+'Frassl Gabriel'!L6+'Limbeck Markus'!L6</f>
         <v>1.5</v>
       </c>
       <c r="G6" s="5">
-        <f>AVERAGE('Borsos Robert'!O6,'Frassl Gabriel'!O6,'Limbeck Markus'!N6)</f>
+        <f>AVERAGE('Borsos Robert'!O6,'Frassl Gabriel'!O6,'Limbeck Markus'!O6)</f>
         <v>-1.6666666666666668E-3</v>
       </c>
       <c r="H6" s="5"/>
@@ -1444,11 +1444,11 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>'Borsos Robert'!L7+'Frassl Gabriel'!L7+'Limbeck Markus'!K7</f>
+        <f>'Borsos Robert'!L7+'Frassl Gabriel'!L7+'Limbeck Markus'!L7</f>
         <v>4</v>
       </c>
       <c r="G7" s="5">
-        <f>AVERAGE('Borsos Robert'!O7,'Frassl Gabriel'!O7,'Limbeck Markus'!N7)</f>
+        <f>AVERAGE('Borsos Robert'!O7,'Frassl Gabriel'!O7,'Limbeck Markus'!O7)</f>
         <v>0</v>
       </c>
     </row>
@@ -1461,11 +1461,11 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <f>'Borsos Robert'!L8+'Frassl Gabriel'!L8+'Limbeck Markus'!K8</f>
-        <v>5</v>
+        <f>'Borsos Robert'!L8+'Frassl Gabriel'!L8+'Limbeck Markus'!L8</f>
+        <v>6</v>
       </c>
       <c r="G8" s="5">
-        <f>AVERAGE('Borsos Robert'!O8,'Frassl Gabriel'!O8,'Limbeck Markus'!N8)</f>
+        <f>AVERAGE('Borsos Robert'!O8,'Frassl Gabriel'!O8,'Limbeck Markus'!O8)</f>
         <v>0.08</v>
       </c>
     </row>
@@ -1478,11 +1478,11 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>'Borsos Robert'!L9+'Frassl Gabriel'!L9+'Limbeck Markus'!K9</f>
+        <f>'Borsos Robert'!L9+'Frassl Gabriel'!L9+'Limbeck Markus'!L9</f>
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <f>AVERAGE('Borsos Robert'!O9,'Frassl Gabriel'!O9,'Limbeck Markus'!N9)</f>
+        <f>AVERAGE('Borsos Robert'!O9,'Frassl Gabriel'!O9,'Limbeck Markus'!O9)</f>
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
@@ -1507,11 +1507,11 @@
         <v>1.5</v>
       </c>
       <c r="E13">
-        <f>'Borsos Robert'!L13+'Frassl Gabriel'!L13+'Limbeck Markus'!K13</f>
+        <f>'Borsos Robert'!L13+'Frassl Gabriel'!L13+'Limbeck Markus'!L13</f>
         <v>2</v>
       </c>
       <c r="G13" s="5">
-        <f>AVERAGE('Borsos Robert'!O13,'Frassl Gabriel'!O13,'Limbeck Markus'!N13)</f>
+        <f>AVERAGE('Borsos Robert'!O13,'Frassl Gabriel'!O13,'Limbeck Markus'!O13)</f>
         <v>-2.5000000000000001E-3</v>
       </c>
     </row>
@@ -1524,11 +1524,11 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <f>'Borsos Robert'!L14+'Frassl Gabriel'!L14+'Limbeck Markus'!K14</f>
+        <f>'Borsos Robert'!L14+'Frassl Gabriel'!L14+'Limbeck Markus'!L14</f>
         <v>13.5</v>
       </c>
       <c r="G14" s="5">
-        <f>AVERAGE('Borsos Robert'!O14,'Frassl Gabriel'!O14,'Limbeck Markus'!N14)</f>
+        <f>AVERAGE('Borsos Robert'!O14,'Frassl Gabriel'!O14,'Limbeck Markus'!O14)</f>
         <v>-4.9999999999999996E-2</v>
       </c>
     </row>
@@ -1541,11 +1541,11 @@
         <v>8.9</v>
       </c>
       <c r="E15">
-        <f>'Borsos Robert'!L15+'Frassl Gabriel'!L15+'Limbeck Markus'!K15</f>
+        <f>'Borsos Robert'!L15+'Frassl Gabriel'!L15+'Limbeck Markus'!L15</f>
         <v>18</v>
       </c>
       <c r="G15" s="5">
-        <f>AVERAGE('Borsos Robert'!O15,'Frassl Gabriel'!O15,'Limbeck Markus'!N15)</f>
+        <f>AVERAGE('Borsos Robert'!O15,'Frassl Gabriel'!O15,'Limbeck Markus'!O15)</f>
         <v>-9.0300000000000005E-2</v>
       </c>
     </row>
@@ -1558,11 +1558,11 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f>'Borsos Robert'!L16+'Frassl Gabriel'!L16+'Limbeck Markus'!K16</f>
-        <v>0</v>
+        <f>'Borsos Robert'!L16+'Frassl Gabriel'!L16+'Limbeck Markus'!L16</f>
+        <v>11</v>
       </c>
       <c r="G16" s="5">
-        <f>AVERAGE('Borsos Robert'!O16,'Frassl Gabriel'!O16,'Limbeck Markus'!N16)</f>
+        <f>AVERAGE('Borsos Robert'!O16,'Frassl Gabriel'!O16,'Limbeck Markus'!O16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1575,11 +1575,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f>'Borsos Robert'!L17+'Frassl Gabriel'!L17+'Limbeck Markus'!K17</f>
+        <f>'Borsos Robert'!L17+'Frassl Gabriel'!L17+'Limbeck Markus'!L17</f>
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <f>AVERAGE('Borsos Robert'!O17,'Frassl Gabriel'!O17,'Limbeck Markus'!N17)</f>
+        <f>AVERAGE('Borsos Robert'!O17,'Frassl Gabriel'!O17,'Limbeck Markus'!O17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1604,11 +1604,11 @@
         <v>14</v>
       </c>
       <c r="E21">
-        <f>'Borsos Robert'!L22+'Frassl Gabriel'!L22+'Limbeck Markus'!K22</f>
+        <f>'Borsos Robert'!L22+'Frassl Gabriel'!L22+'Limbeck Markus'!L22</f>
         <v>10.8</v>
       </c>
       <c r="G21" s="5">
-        <f>AVERAGE('Borsos Robert'!O22,'Frassl Gabriel'!O22,'Limbeck Markus'!N22)</f>
+        <f>AVERAGE('Borsos Robert'!O22,'Frassl Gabriel'!O22,'Limbeck Markus'!O22)</f>
         <v>5.733333333333334E-2</v>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <f>'Borsos Robert'!L23+'Frassl Gabriel'!L23+'Limbeck Markus'!K23</f>
-        <v>0</v>
+        <f>'Borsos Robert'!L23+'Frassl Gabriel'!L23+'Limbeck Markus'!L23</f>
+        <v>13</v>
       </c>
       <c r="G22" s="5">
-        <f>AVERAGE('Borsos Robert'!O23,'Frassl Gabriel'!O23,'Limbeck Markus'!N23)</f>
-        <v>0.16333333333333333</v>
+        <f>AVERAGE('Borsos Robert'!O23,'Frassl Gabriel'!O23,'Limbeck Markus'!O23)</f>
+        <v>-4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1638,11 +1638,11 @@
         <v>16</v>
       </c>
       <c r="E23">
-        <f>'Borsos Robert'!L24+'Frassl Gabriel'!L24+'Limbeck Markus'!K24</f>
+        <f>'Borsos Robert'!L24+'Frassl Gabriel'!L24+'Limbeck Markus'!L24</f>
         <v>7</v>
       </c>
       <c r="G23" s="5">
-        <f>AVERAGE('Borsos Robert'!O24,'Frassl Gabriel'!O24,'Limbeck Markus'!N24)</f>
+        <f>AVERAGE('Borsos Robert'!O24,'Frassl Gabriel'!O24,'Limbeck Markus'!O24)</f>
         <v>0.17</v>
       </c>
     </row>
@@ -1667,11 +1667,11 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f>'Borsos Robert'!L28+'Frassl Gabriel'!L28+'Limbeck Markus'!K28</f>
+        <f>'Borsos Robert'!L28+'Frassl Gabriel'!L28+'Limbeck Markus'!L28</f>
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f>AVERAGE('Borsos Robert'!O28,'Frassl Gabriel'!O28,'Limbeck Markus'!N28)</f>
+        <f>AVERAGE('Borsos Robert'!O28,'Frassl Gabriel'!O28,'Limbeck Markus'!O28)</f>
         <v>0</v>
       </c>
     </row>
@@ -1684,11 +1684,11 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f>'Borsos Robert'!L29+'Frassl Gabriel'!L29+'Limbeck Markus'!K29</f>
+        <f>'Borsos Robert'!L29+'Frassl Gabriel'!L29+'Limbeck Markus'!L29</f>
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f>AVERAGE('Borsos Robert'!O29,'Frassl Gabriel'!O29,'Limbeck Markus'!N29)</f>
+        <f>AVERAGE('Borsos Robert'!O29,'Frassl Gabriel'!O29,'Limbeck Markus'!O29)</f>
         <v>0</v>
       </c>
     </row>
@@ -1701,11 +1701,11 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <f>'Borsos Robert'!L30+'Frassl Gabriel'!L30+'Limbeck Markus'!K30</f>
+        <f>'Borsos Robert'!L30+'Frassl Gabriel'!L30+'Limbeck Markus'!L30</f>
         <v>0</v>
       </c>
       <c r="G29" s="5">
-        <f>AVERAGE('Borsos Robert'!O30,'Frassl Gabriel'!O30,'Limbeck Markus'!N30)</f>
+        <f>AVERAGE('Borsos Robert'!O30,'Frassl Gabriel'!O30,'Limbeck Markus'!O30)</f>
         <v>0</v>
       </c>
     </row>
@@ -1718,11 +1718,11 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f>'Borsos Robert'!L31+'Frassl Gabriel'!L31+'Limbeck Markus'!K31</f>
+        <f>'Borsos Robert'!L31+'Frassl Gabriel'!L31+'Limbeck Markus'!L31</f>
         <v>0</v>
       </c>
       <c r="G30" s="5">
-        <f>AVERAGE('Borsos Robert'!O31,'Frassl Gabriel'!O31,'Limbeck Markus'!N31)</f>
+        <f>AVERAGE('Borsos Robert'!O31,'Frassl Gabriel'!O31,'Limbeck Markus'!O31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f>'Borsos Robert'!L35+'Frassl Gabriel'!L35+'Limbeck Markus'!K35</f>
+        <f>'Borsos Robert'!L35+'Frassl Gabriel'!L35+'Limbeck Markus'!L35</f>
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f>AVERAGE('Borsos Robert'!O35,'Frassl Gabriel'!O35,'Limbeck Markus'!N35)</f>
+        <f>AVERAGE('Borsos Robert'!O35,'Frassl Gabriel'!O35,'Limbeck Markus'!O35)</f>
         <v>0</v>
       </c>
     </row>
@@ -1764,11 +1764,11 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f>'Borsos Robert'!L36+'Frassl Gabriel'!L36+'Limbeck Markus'!K36</f>
+        <f>'Borsos Robert'!L36+'Frassl Gabriel'!L36+'Limbeck Markus'!L36</f>
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f>AVERAGE('Borsos Robert'!O36,'Frassl Gabriel'!O36,'Limbeck Markus'!N36)</f>
+        <f>AVERAGE('Borsos Robert'!O36,'Frassl Gabriel'!O36,'Limbeck Markus'!O36)</f>
         <v>0</v>
       </c>
     </row>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f>'Borsos Robert'!L37+'Frassl Gabriel'!L37+'Limbeck Markus'!K37</f>
+        <f>'Borsos Robert'!L37+'Frassl Gabriel'!L37+'Limbeck Markus'!L37</f>
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f>AVERAGE('Borsos Robert'!O37,'Frassl Gabriel'!O37,'Limbeck Markus'!N37)</f>
+        <f>AVERAGE('Borsos Robert'!O37,'Frassl Gabriel'!O37,'Limbeck Markus'!O37)</f>
         <v>0</v>
       </c>
     </row>
@@ -1798,11 +1798,11 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f>'Borsos Robert'!L38+'Frassl Gabriel'!L38+'Limbeck Markus'!K38</f>
+        <f>'Borsos Robert'!L38+'Frassl Gabriel'!L38+'Limbeck Markus'!L38</f>
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f>AVERAGE('Borsos Robert'!O38,'Frassl Gabriel'!O38,'Limbeck Markus'!N38)</f>
+        <f>AVERAGE('Borsos Robert'!O38,'Frassl Gabriel'!O38,'Limbeck Markus'!O38)</f>
         <v>0</v>
       </c>
     </row>
@@ -1815,11 +1815,11 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f>'Borsos Robert'!L39+'Frassl Gabriel'!L39+'Limbeck Markus'!K39</f>
+        <f>'Borsos Robert'!L39+'Frassl Gabriel'!L39+'Limbeck Markus'!L39</f>
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f>AVERAGE('Borsos Robert'!O39,'Frassl Gabriel'!O39,'Limbeck Markus'!N39)</f>
+        <f>AVERAGE('Borsos Robert'!O39,'Frassl Gabriel'!O39,'Limbeck Markus'!O39)</f>
         <v>0</v>
       </c>
     </row>
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1878,7 +1878,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="10">
+        <v>42348</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
@@ -1913,9 +1915,12 @@
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
       <c r="L8">
         <f>J8+I8+H8+G8+F8+E8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="0"/>
@@ -1969,6 +1974,9 @@
       <c r="J12" s="10">
         <v>42313</v>
       </c>
+      <c r="K12" s="10">
+        <v>42336</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -1995,8 +2003,11 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
       <c r="L13">
-        <f>J13+I13+H13+G13+F13+E13</f>
+        <f t="shared" ref="L13:L18" si="1">J13+I13+H13+G13+F13+E13</f>
         <v>0</v>
       </c>
       <c r="O13" s="5">
@@ -2029,12 +2040,15 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
       <c r="L14">
-        <f>J14+I14+H14+G14+F14+E14</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ref="O14:O18" si="1">D14/100*(D14-L14)</f>
+        <f t="shared" ref="O14:O18" si="2">D14/100*(D14-L14)</f>
         <v>-0.1</v>
       </c>
     </row>
@@ -2063,12 +2077,15 @@
       <c r="J15" s="6">
         <v>2</v>
       </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
       <c r="L15">
-        <f>J15+I15+H15+G15+F15+E15</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.1125</v>
       </c>
     </row>
@@ -2097,12 +2114,15 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
+      <c r="K16" s="6">
+        <v>5</v>
+      </c>
       <c r="L16">
-        <f>J16+I16+H16+G16+F16+E16</f>
-        <v>0</v>
+        <f>K16+J16+I16+H16+G16+F16+E16</f>
+        <v>5</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2131,12 +2151,15 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
       <c r="L17">
-        <f>J17+I17+H17+G17+F17+E17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2165,12 +2188,15 @@
       <c r="J18" s="6">
         <v>1</v>
       </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
       <c r="L18">
-        <f>J18+I18+H18+G18+F18+E18</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
     </row>
@@ -2201,8 +2227,12 @@
       <c r="H21" s="10">
         <v>42305</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="I21" s="10">
+        <v>42337</v>
+      </c>
+      <c r="J21" s="10">
+        <v>42348</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -2223,6 +2253,12 @@
       <c r="H22" s="6">
         <v>0</v>
       </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
       <c r="L22">
         <f>J22+I22+H22+G22+F22+E22</f>
         <v>3</v>
@@ -2251,13 +2287,19 @@
       <c r="H23" s="6">
         <v>0</v>
       </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
       <c r="L23">
         <f>J23+I23+H23+G23+F23+E23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" ref="O23:O24" si="2">D23/100*(D23-L23)</f>
-        <v>0.04</v>
+        <f t="shared" ref="O23:O24" si="3">D23/100*(D23-L23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2279,12 +2321,18 @@
       <c r="H24" s="6">
         <v>1</v>
       </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
       <c r="L24">
         <f>J24+I24+H24+G24+F24+E24</f>
         <v>2</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
     </row>
@@ -2332,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" ref="O29:O30" si="3">D29/100*(D29-L29)</f>
+        <f t="shared" ref="O29:O30" si="4">D29/100*(D29-L29)</f>
         <v>0</v>
       </c>
     </row>
@@ -2345,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2423,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" ref="O37:O38" si="4">D37/100*(D37-L37)</f>
+        <f t="shared" ref="O37:O38" si="5">D37/100*(D37-L37)</f>
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2458,12 +2506,15 @@
       </c>
       <c r="B46">
         <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L16" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2471,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2699,6 +2750,9 @@
       <c r="J12" s="10">
         <v>42292</v>
       </c>
+      <c r="K12" s="10">
+        <v>42336</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
@@ -2725,12 +2779,15 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
       <c r="L13">
-        <f>J13+I13+H13+G13+F13+E13</f>
+        <f t="shared" ref="L13:L18" si="0">J13+I13+H13+G13+F13+E13</f>
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <f>D13/100*(D13-L13)</f>
+        <f t="shared" ref="O13:O18" si="1">D13/100*(D13-L13)</f>
         <v>0</v>
       </c>
     </row>
@@ -2759,12 +2816,15 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
       <c r="L14">
-        <f>J14+I14+H14+G14+F14+E14</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="O14" s="5">
-        <f>D14/100*(D14-L14)</f>
+        <f t="shared" si="1"/>
         <v>-0.01</v>
       </c>
     </row>
@@ -2793,12 +2853,15 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
       <c r="L15">
-        <f>J15+I15+H15+G15+F15+E15</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O15" s="5">
-        <f>D15/100*(D15-L15)</f>
+        <f t="shared" si="1"/>
         <v>-3.8400000000000004E-2</v>
       </c>
     </row>
@@ -2827,12 +2890,15 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
+      <c r="K16" s="6">
+        <v>3</v>
+      </c>
       <c r="L16">
-        <f>J16+I16+H16+G16+F16+E16</f>
-        <v>0</v>
+        <f>K16+J16+I16+H16+G16+F16+E16</f>
+        <v>3</v>
       </c>
       <c r="O16" s="5">
-        <f>D16/100*(D16-L16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2861,12 +2927,15 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
       <c r="L17">
-        <f>J17+I17+H17+G17+F17+E17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <f>D17/100*(D17-L17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2895,12 +2964,15 @@
       <c r="J18" s="6">
         <v>0.1</v>
       </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
       <c r="L18">
-        <f>J18+I18+H18+G18+F18+E18</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="O18" s="5">
-        <f>D18/100*(D18-L18)</f>
+        <f t="shared" si="1"/>
         <v>2E-3</v>
       </c>
     </row>
@@ -2931,7 +3003,9 @@
       <c r="H21" s="10">
         <v>42305</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="10">
+        <v>42337</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -2953,6 +3027,9 @@
       <c r="H22" s="6">
         <v>0.8</v>
       </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
       <c r="L22">
         <f>J22+I22+H22+G22+F22+E22</f>
         <v>4.8</v>
@@ -2981,13 +3058,16 @@
       <c r="H23" s="6">
         <v>0</v>
       </c>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
       <c r="L23">
         <f>J23+I23+H23+G23+F23+E23</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" s="5">
         <f>D23/100*(D23-L23)</f>
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -3008,6 +3088,9 @@
       </c>
       <c r="H24" s="6">
         <v>3</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
       </c>
       <c r="L24">
         <f>J24+I24+H24+G24+F24+E24</f>
@@ -3189,20 +3272,24 @@
       </c>
       <c r="B46">
         <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
-        <v>25.8</v>
+        <v>30.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L16" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3210,31 +3297,31 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3247,72 +3334,73 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="K6">
+      <c r="L6">
         <f>J6+I6+H6+G6+F6+E6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <f>D6/100*(D6-K6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6" s="5">
+        <f>D6/100*(D6-L6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="K7">
-        <f t="shared" ref="K7:K9" si="0">J7+I7+H7+G7+F7+E7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ref="N7:N9" si="1">D7/100*(D7-K7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f t="shared" ref="L7:L9" si="0">J7+I7+H7+G7+F7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" ref="O7:O9" si="1">D7/100*(D7-L7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3337,8 +3425,11 @@
       <c r="J12" s="10">
         <v>42313</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K12" s="10">
+        <v>42336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -3363,16 +3454,19 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13">
-        <f>J13+I13+H13+G13+F13+E13</f>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>K13+J13+I13+H13+G13+F13+E13</f>
         <v>2</v>
       </c>
-      <c r="N13" s="5">
-        <f>D13/100*(D13-K13)</f>
+      <c r="O13" s="5">
+        <f>D13/100*(D13-L13)</f>
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -3397,16 +3491,19 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14">
-        <f t="shared" ref="K14:K18" si="2">J14+I14+H14+G14+F14+E14</f>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>K14+J14+I14+H14+G14+F14+E14</f>
         <v>4</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" ref="N14:N18" si="3">D14/100*(D14-K14)</f>
+      <c r="O14" s="5">
+        <f t="shared" ref="O14:O18" si="2">D14/100*(D14-L14)</f>
         <v>-0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -3431,16 +3528,19 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>K15+J15+I15+H15+G15+F15+E15</f>
+        <v>7</v>
+      </c>
+      <c r="O15" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="3"/>
         <v>-0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -3465,16 +3565,19 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f>K16+J16+I16+H16+G16+F16+E16</f>
+        <v>3</v>
+      </c>
+      <c r="O16" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -3499,16 +3602,19 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>K17+J17+I17+H17+G17+F17+E17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -3533,24 +3639,27 @@
       <c r="J18" s="6">
         <v>0.2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>K18+J18+I18+H18+G18+F18+E18</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="3"/>
         <v>9.999999999999998E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3569,10 +3678,15 @@
       <c r="H21" s="10">
         <v>42305</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I21" s="10">
+        <v>42337</v>
+      </c>
+      <c r="J21" s="10">
+        <v>42348</v>
+      </c>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>47</v>
       </c>
@@ -3591,16 +3705,22 @@
       <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <f>J22+I22+H22+G22+F22+E22</f>
         <v>3</v>
       </c>
-      <c r="N22" s="5">
-        <f>D22/100*(D22-K22)</f>
+      <c r="O22" s="5">
+        <f>D22/100*(D22-L22)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -3619,16 +3739,22 @@
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="K23">
-        <f t="shared" ref="K23:K24" si="4">J23+I23+H23+G23+F23+E23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
-        <f t="shared" ref="N23:N24" si="5">D23/100*(D23-K23)</f>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I23" s="6">
+        <v>6</v>
+      </c>
+      <c r="J23" s="8">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L24" si="3">J23+I23+H23+G23+F23+E23</f>
+        <v>9</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" ref="O23:O24" si="4">D23/100*(D23-L23)</f>
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -3647,24 +3773,30 @@
       <c r="H24" s="6">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="5">
-        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -3677,72 +3809,73 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f>J28+I28+H28+G28+F28+E28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="5">
-        <f>D28/100*(D28-K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28" s="5">
+        <f>D28/100*(D28-L28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="K29">
-        <f t="shared" ref="K29:K31" si="6">J29+I29+H29+G29+F29+E29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" ref="N29:N30" si="7">D29/100*(D29-K29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="5">J29+I29+H29+G29+F29+E29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" ref="O29:O30" si="6">D29/100*(D29-L29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="K30">
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <f>D31/100*(D31-K31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f>D31/100*(D31-L31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>14</v>
       </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3755,79 +3888,80 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f>J35+I35+H35+G35+F35+E35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="5">
-        <f>D35/100*(D35-K35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35" s="5">
+        <f>D35/100*(D35-L35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>29</v>
       </c>
-      <c r="K36">
-        <f t="shared" ref="K36:K39" si="8">J36+I36+H36+G36+F36+E36</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="5">
-        <f>D36/100*(D36-K36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <f t="shared" ref="L36:L39" si="7">J36+I36+H36+G36+F36+E36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <f>D36/100*(D36-L36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="5">
-        <f t="shared" ref="N37:N38" si="9">D37/100*(D37-K37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" ref="O37:O38" si="8">D37/100*(D37-L37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>31</v>
       </c>
-      <c r="K38">
+      <c r="L38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N38" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="5">
-        <f>D39/100*(D39-K39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <f>D39/100*(D39-L39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
       <c r="B46">
-        <f>K6+K7+K8+K9+K13+K14+K15+K16+K22+K23+K24+K28+K29+K30+K31+K35+K36+K37+K38+K39</f>
-        <v>17</v>
+        <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitaufzeichnung2.0.xlsx
+++ b/Zeitaufzeichnung2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\TGM\4CHIT\ITP\Rafeiner-Magor\School-Quakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\workspace\school\SEW\gitrep\School-Quakes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Gesamt" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="50">
   <si>
     <t>Arbeit:</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Gesamt (in h):</t>
   </si>
   <si>
-    <t>Genauigkeit</t>
-  </si>
-  <si>
     <t>Frassl Gabriel</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Gesamte benötigte Zeit</t>
   </si>
   <si>
-    <t>Genauigkeit:</t>
-  </si>
-  <si>
     <t>Arbeitsdiagramm:</t>
   </si>
   <si>
@@ -171,6 +165,18 @@
   </si>
   <si>
     <t>Entwurf der Applikation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamte Stunden: </t>
+  </si>
+  <si>
+    <t>Gesamt geschätzt:</t>
+  </si>
+  <si>
+    <t>Personentage:</t>
+  </si>
+  <si>
+    <t>Personenwochen:</t>
   </si>
 </sst>
 </file>
@@ -391,13 +397,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.8</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,13 +1063,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>18597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1348,76 +1354,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O3">
         <f>'Borsos Robert'!B46</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O4">
         <f>'Frassl Gabriel'!B46</f>
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <f>'Limbeck Markus'!B46</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1426,16 +1429,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>'Borsos Robert'!L6+'Frassl Gabriel'!L6+'Limbeck Markus'!L6</f>
+        <f>'Borsos Robert'!O6+'Frassl Gabriel'!O6+'Limbeck Markus'!O6</f>
         <v>1.5</v>
       </c>
-      <c r="G6" s="5">
-        <f>AVERAGE('Borsos Robert'!O6,'Frassl Gabriel'!O6,'Limbeck Markus'!O6)</f>
-        <v>-1.6666666666666668E-3</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1444,15 +1444,12 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>'Borsos Robert'!L7+'Frassl Gabriel'!L7+'Limbeck Markus'!L7</f>
-        <v>4</v>
-      </c>
-      <c r="G7" s="5">
-        <f>AVERAGE('Borsos Robert'!O7,'Frassl Gabriel'!O7,'Limbeck Markus'!O7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O7+'Frassl Gabriel'!O7+'Limbeck Markus'!O7</f>
+        <v>7</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1461,15 +1458,12 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <f>'Borsos Robert'!L8+'Frassl Gabriel'!L8+'Limbeck Markus'!L8</f>
-        <v>6</v>
-      </c>
-      <c r="G8" s="5">
-        <f>AVERAGE('Borsos Robert'!O8,'Frassl Gabriel'!O8,'Limbeck Markus'!O8)</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O8+'Frassl Gabriel'!O8+'Limbeck Markus'!O8</f>
+        <v>9</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1478,27 +1472,24 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>'Borsos Robert'!L9+'Frassl Gabriel'!L9+'Limbeck Markus'!L9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <f>AVERAGE('Borsos Robert'!O9,'Frassl Gabriel'!O9,'Limbeck Markus'!O9)</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O9+'Frassl Gabriel'!O9+'Limbeck Markus'!O9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1507,15 +1498,12 @@
         <v>1.5</v>
       </c>
       <c r="E13">
-        <f>'Borsos Robert'!L13+'Frassl Gabriel'!L13+'Limbeck Markus'!L13</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <f>AVERAGE('Borsos Robert'!O13,'Frassl Gabriel'!O13,'Limbeck Markus'!O13)</f>
-        <v>-2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O13+'Frassl Gabriel'!O13+'Limbeck Markus'!O13</f>
+        <v>2</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1524,15 +1512,12 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <f>'Borsos Robert'!L14+'Frassl Gabriel'!L14+'Limbeck Markus'!L14</f>
+        <f>'Borsos Robert'!O14+'Frassl Gabriel'!O14+'Limbeck Markus'!O14</f>
         <v>13.5</v>
       </c>
-      <c r="G14" s="5">
-        <f>AVERAGE('Borsos Robert'!O14,'Frassl Gabriel'!O14,'Limbeck Markus'!O14)</f>
-        <v>-4.9999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1541,286 +1526,277 @@
         <v>8.9</v>
       </c>
       <c r="E15">
-        <f>'Borsos Robert'!L15+'Frassl Gabriel'!L15+'Limbeck Markus'!L15</f>
+        <f>'Borsos Robert'!O15+'Frassl Gabriel'!O15+'Limbeck Markus'!O15</f>
         <v>18</v>
       </c>
-      <c r="G15" s="5">
-        <f>AVERAGE('Borsos Robert'!O15,'Frassl Gabriel'!O15,'Limbeck Markus'!O15)</f>
-        <v>-9.0300000000000005E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="D16">
         <f>'Borsos Robert'!D16+'Frassl Gabriel'!D16+'Limbeck Markus'!D16</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <f>'Borsos Robert'!L16+'Frassl Gabriel'!L16+'Limbeck Markus'!L16</f>
+        <f>'Borsos Robert'!O16+'Frassl Gabriel'!O16+'Limbeck Markus'!O16</f>
         <v>11</v>
       </c>
-      <c r="G16" s="5">
-        <f>AVERAGE('Borsos Robert'!O16,'Frassl Gabriel'!O16,'Limbeck Markus'!O16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
         <f>'Borsos Robert'!D17+'Frassl Gabriel'!D17+'Limbeck Markus'!D17</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <f>'Borsos Robert'!L17+'Frassl Gabriel'!L17+'Limbeck Markus'!L17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <f>AVERAGE('Borsos Robert'!O17,'Frassl Gabriel'!O17,'Limbeck Markus'!O17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O17+'Frassl Gabriel'!O17+'Limbeck Markus'!O17</f>
+        <v>21</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>18</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>19</v>
       </c>
       <c r="D21">
         <f>'Borsos Robert'!D22+'Frassl Gabriel'!D22+'Limbeck Markus'!D22</f>
         <v>14</v>
       </c>
       <c r="E21">
-        <f>'Borsos Robert'!L22+'Frassl Gabriel'!L22+'Limbeck Markus'!L22</f>
-        <v>10.8</v>
-      </c>
-      <c r="G21" s="5">
-        <f>AVERAGE('Borsos Robert'!O22,'Frassl Gabriel'!O22,'Limbeck Markus'!O22)</f>
-        <v>5.733333333333334E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O22+'Frassl Gabriel'!O22+'Limbeck Markus'!O22</f>
+        <v>16</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <f>'Borsos Robert'!D23+'Frassl Gabriel'!D23+'Limbeck Markus'!D23</f>
         <v>11</v>
       </c>
       <c r="E22">
-        <f>'Borsos Robert'!L23+'Frassl Gabriel'!L23+'Limbeck Markus'!L23</f>
-        <v>13</v>
-      </c>
-      <c r="G22" s="5">
-        <f>AVERAGE('Borsos Robert'!O23,'Frassl Gabriel'!O23,'Limbeck Markus'!O23)</f>
-        <v>-4.9999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O23+'Frassl Gabriel'!O23+'Limbeck Markus'!O23</f>
+        <v>15</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <f>'Borsos Robert'!D24+'Frassl Gabriel'!D24+'Limbeck Markus'!D24</f>
         <v>16</v>
       </c>
       <c r="E23">
-        <f>'Borsos Robert'!L24+'Frassl Gabriel'!L24+'Limbeck Markus'!L24</f>
-        <v>7</v>
-      </c>
-      <c r="G23" s="5">
-        <f>AVERAGE('Borsos Robert'!O24,'Frassl Gabriel'!O24,'Limbeck Markus'!O24)</f>
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O24+'Frassl Gabriel'!O24+'Limbeck Markus'!O24</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>22</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>23</v>
       </c>
       <c r="D27">
         <f>'Borsos Robert'!D28+'Frassl Gabriel'!D28+'Limbeck Markus'!D28</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <f>'Borsos Robert'!L28+'Frassl Gabriel'!L28+'Limbeck Markus'!L28</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <f>AVERAGE('Borsos Robert'!O28,'Frassl Gabriel'!O28,'Limbeck Markus'!O28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O28+'Frassl Gabriel'!O28+'Limbeck Markus'!O28</f>
+        <v>6</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <f>'Borsos Robert'!D29+'Frassl Gabriel'!D29+'Limbeck Markus'!D29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <f>'Borsos Robert'!L29+'Frassl Gabriel'!L29+'Limbeck Markus'!L29</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <f>AVERAGE('Borsos Robert'!O29,'Frassl Gabriel'!O29,'Limbeck Markus'!O29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O29+'Frassl Gabriel'!O29+'Limbeck Markus'!O29</f>
+        <v>3</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <f>'Borsos Robert'!D30+'Frassl Gabriel'!D30+'Limbeck Markus'!D30</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <f>'Borsos Robert'!L30+'Frassl Gabriel'!L30+'Limbeck Markus'!L30</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <f>AVERAGE('Borsos Robert'!O30,'Frassl Gabriel'!O30,'Limbeck Markus'!O30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O30+'Frassl Gabriel'!O30+'Limbeck Markus'!O30</f>
+        <v>8</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <f>'Borsos Robert'!D31+'Frassl Gabriel'!D31+'Limbeck Markus'!D31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <f>'Borsos Robert'!L31+'Frassl Gabriel'!L31+'Limbeck Markus'!L31</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <f>AVERAGE('Borsos Robert'!O31,'Frassl Gabriel'!O31,'Limbeck Markus'!O31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O31+'Frassl Gabriel'!O31+'Limbeck Markus'!O31</f>
+        <v>3</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>27</v>
-      </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>28</v>
       </c>
       <c r="D34">
         <f>'Borsos Robert'!D35+'Frassl Gabriel'!D35+'Limbeck Markus'!D35</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <f>'Borsos Robert'!L35+'Frassl Gabriel'!L35+'Limbeck Markus'!L35</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <f>AVERAGE('Borsos Robert'!O35,'Frassl Gabriel'!O35,'Limbeck Markus'!O35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O35+'Frassl Gabriel'!O35+'Limbeck Markus'!O35</f>
+        <v>8</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35">
         <f>'Borsos Robert'!D36+'Frassl Gabriel'!D36+'Limbeck Markus'!D36</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <f>'Borsos Robert'!L36+'Frassl Gabriel'!L36+'Limbeck Markus'!L36</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <f>AVERAGE('Borsos Robert'!O36,'Frassl Gabriel'!O36,'Limbeck Markus'!O36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O36+'Frassl Gabriel'!O36+'Limbeck Markus'!O36</f>
+        <v>5</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <f>'Borsos Robert'!D37+'Frassl Gabriel'!D37+'Limbeck Markus'!D37</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <f>'Borsos Robert'!L37+'Frassl Gabriel'!L37+'Limbeck Markus'!L37</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <f>AVERAGE('Borsos Robert'!O37,'Frassl Gabriel'!O37,'Limbeck Markus'!O37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O37+'Frassl Gabriel'!O37+'Limbeck Markus'!O37</f>
+        <v>7</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <f>'Borsos Robert'!D38+'Frassl Gabriel'!D38+'Limbeck Markus'!D38</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <f>'Borsos Robert'!L38+'Frassl Gabriel'!L38+'Limbeck Markus'!L38</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <f>AVERAGE('Borsos Robert'!O38,'Frassl Gabriel'!O38,'Limbeck Markus'!O38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <f>'Borsos Robert'!O38+'Frassl Gabriel'!O38+'Limbeck Markus'!O38</f>
+        <v>4</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <f>'Borsos Robert'!D39+'Frassl Gabriel'!D39+'Limbeck Markus'!D39</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <f>'Borsos Robert'!L39+'Frassl Gabriel'!L39+'Limbeck Markus'!L39</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <f>AVERAGE('Borsos Robert'!O39,'Frassl Gabriel'!O39,'Limbeck Markus'!O39)</f>
-        <v>0</v>
+        <f>'Borsos Robert'!O39+'Frassl Gabriel'!O39+'Limbeck Markus'!O39</f>
+        <v>3</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <f>SUM(D6:D38)</f>
+        <v>120.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <f>SUM(E6:E38)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f>B42/8</f>
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f>B49/5</f>
+        <v>4.2750000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1831,42 +1807,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1882,35 +1856,29 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="L6">
+      <c r="O6">
         <f>J6+I6+H6+G6+F6+E6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="5">
-        <f>D6/100*(D6-L6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="L7">
+      <c r="O7">
         <f>J7+I7+H7+G7+F7+E7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" ref="O7:O9" si="0">D7/100*(D7-L7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1918,38 +1886,32 @@
       <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <f>J8+I8+H8+G8+F8+E8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="L9">
+      <c r="O9">
         <f>J9+I9+H9+G9+F9+E9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R9" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1977,8 +1939,15 @@
       <c r="K12" s="10">
         <v>42336</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L12" s="10">
+        <v>42378</v>
+      </c>
+      <c r="M12" s="10">
+        <v>42379</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -2006,16 +1975,20 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13">
-        <f t="shared" ref="L13:L18" si="1">J13+I13+H13+G13+F13+E13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <f>D13/100*(D13-L13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13">
+        <f t="shared" ref="O13:O18" si="0">J13+I13+H13+G13+F13+E13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -2043,16 +2016,20 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" ref="O14:O18" si="2">D14/100*(D14-L14)</f>
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -2080,21 +2057,25 @@
       <c r="K15" s="6">
         <v>0</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.1125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -2117,21 +2098,25 @@
       <c r="K16" s="6">
         <v>5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16">
         <f>K16+J16+I16+H16+G16+F16+E16</f>
         <v>5</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -2154,18 +2139,22 @@
       <c r="K17" s="6">
         <v>0</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L17" s="6">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17">
+        <f>J17+I17+H17+G17+F17+E17+L17+M17</f>
+        <v>7</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
         <v>4</v>
@@ -2191,26 +2180,30 @@
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -2234,9 +2227,9 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
         <v>3</v>
@@ -2259,52 +2252,46 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <f>J22+I22+H22+G22+F22+E22</f>
         <v>3</v>
       </c>
-      <c r="O22" s="5">
-        <f>D22/100*(D22-L22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f>J23+I23+H23+G23+F23+E23</f>
+        <v>2</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>20</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <f>J23+I23+H23+G23+F23+E23</f>
-        <v>2</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" ref="O23:O24" si="3">D23/100*(D23-L23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>21</v>
       </c>
       <c r="D24" s="7">
         <v>6</v>
@@ -2327,235 +2314,328 @@
       <c r="J24" s="6">
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <f>J24+I24+H24+G24+F24+E24</f>
         <v>2</v>
       </c>
-      <c r="O24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R24" s="5"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E27" s="10">
+        <v>42350</v>
+      </c>
+      <c r="F27" s="10">
+        <v>42366</v>
+      </c>
+      <c r="G27" s="10">
+        <v>42379</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="O28">
+        <f>J28+I28+H28+G28+F28+E28</f>
+        <v>6</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="L28">
-        <f>J28+I28+H28+G28+F28+E28</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
-        <f>D28/100*(D28-L28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="O29">
+        <f>J29+I29+H29+G29+F29+E29</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="L29">
-        <f>J29+I29+H29+G29+F29+E29</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
-        <f t="shared" ref="O29:O30" si="4">D29/100*(D29-L29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="O30">
+        <f>J30+I30+H30+G30+F30+E30</f>
+        <v>2</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="L30">
-        <f>J30+I30+H30+G30+F30+E30</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31">
         <f>J31+I31+H31+G31+F31+E31</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <f>D31/100*(D31-L31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>14</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E34" s="10">
+        <v>42380</v>
+      </c>
+      <c r="F34" s="10">
+        <v>42381</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="O35">
+        <f>J35+I35+H35+G35+F35+E35</f>
+        <v>2</v>
+      </c>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="L35">
-        <f>J35+I35+H35+G35+F35+E35</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <f>D35/100*(D35-L35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="O36">
+        <f>J36+I36+H36+G36+F36+E36</f>
+        <v>3</v>
+      </c>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="L36">
-        <f>J36+I36+H36+G36+F36+E36</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <f>D36/100*(D36-L36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="O37">
+        <f>J37+I37+H37+G37+F37+E37</f>
+        <v>1</v>
+      </c>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="L37">
-        <f>J37+I37+H37+G37+F37+E37</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
-        <f t="shared" ref="O37:O38" si="5">D37/100*(D37-L37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>J38+I38+H38+G38+F38+E38</f>
+        <v>1</v>
+      </c>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="L38">
-        <f>J38+I38+H38+G38+F38+E38</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <f>D39/100*(D39-L39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f>J39+I39+H39+G39+F39+E39</f>
+        <v>1</v>
+      </c>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
-        <v>27</v>
+        <f>O6+O7+O8+O9+O13+O14+O15+O16+O22+O23+O24+O28+O29+O30+O31+O35+O36+O37+O38+O39</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L16" formula="1"/>
+    <ignoredError sqref="O16" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2580,8 +2660,17 @@
       <c r="J5" s="10">
         <v>42292</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K5" s="2">
+        <v>42336</v>
+      </c>
+      <c r="L5" s="2">
+        <v>42350</v>
+      </c>
+      <c r="M5" s="2">
+        <v>42378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2606,16 +2695,22 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <f>J6+I6+H6+G6+F6+E6</f>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>SUM(E6:M6)</f>
         <v>1.5</v>
       </c>
-      <c r="O6" s="5">
-        <f>D6/100*(D6-L6)</f>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -2640,18 +2735,24 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="L7">
-        <f>J7+I7+H7+G7+F7+E7</f>
-        <v>4</v>
-      </c>
-      <c r="O7" s="5">
-        <f>D7/100*(D7-L7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O39" si="0">SUM(E7:M7)</f>
+        <v>7</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9">
         <v>8</v>
@@ -2674,16 +2775,22 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="L8">
-        <f>J8+I8+H8+G8+F8+E8</f>
-        <v>5</v>
-      </c>
-      <c r="O8" s="5">
-        <f>D8/100*(D8-L8)</f>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -2708,24 +2815,36 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="L9">
-        <f>J9+I9+H9+G9+F9+E9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <f>D9/100*(D9-L9)</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2753,8 +2872,15 @@
       <c r="K12" s="10">
         <v>42336</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L12" s="10">
+        <v>42378</v>
+      </c>
+      <c r="M12" s="10">
+        <v>42379</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -2782,16 +2908,20 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13">
-        <f t="shared" ref="L13:L18" si="0">J13+I13+H13+G13+F13+E13</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <f t="shared" ref="O13:O18" si="1">D13/100*(D13-L13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -2819,16 +2949,20 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -2856,16 +2990,20 @@
       <c r="K15" s="6">
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.8400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2893,16 +3031,20 @@
       <c r="K16" s="6">
         <v>3</v>
       </c>
-      <c r="L16">
-        <f>K16+J16+I16+H16+G16+F16+E16</f>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -2930,18 +3072,22 @@
       <c r="K17" s="6">
         <v>0</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L17" s="6">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -2967,26 +3113,36 @@
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="1"/>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -3008,9 +3164,9 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
         <v>6</v>
@@ -3019,29 +3175,26 @@
         <v>2</v>
       </c>
       <c r="F22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" s="6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I22" s="6">
         <v>0</v>
       </c>
-      <c r="L22">
-        <f>J22+I22+H22+G22+F22+E22</f>
-        <v>4.8</v>
-      </c>
-      <c r="O22" s="5">
-        <f>D22/100*(D22-L22)</f>
-        <v>7.2000000000000008E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
         <v>3</v>
@@ -3061,18 +3214,15 @@
       <c r="I23" s="6">
         <v>2</v>
       </c>
-      <c r="L23">
-        <f>J23+I23+H23+G23+F23+E23</f>
-        <v>2</v>
-      </c>
-      <c r="O23" s="5">
-        <f>D23/100*(D23-L23)</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
         <v>7</v>
@@ -3092,236 +3242,305 @@
       <c r="I24" s="6">
         <v>0</v>
       </c>
-      <c r="L24">
-        <f>J24+I24+H24+G24+F24+E24</f>
+      <c r="O24">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O24" s="5">
-        <f>D24/100*(D24-L24)</f>
-        <v>0.21000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="E27" s="10">
+        <v>42350</v>
+      </c>
+      <c r="F27" s="10">
+        <v>42366</v>
+      </c>
+      <c r="G27" s="10">
+        <v>42379</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="L28">
-        <f>J28+I28+H28+G28+F28+E28</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
-        <f>D28/100*(D28-L28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="L29">
-        <f>J29+I29+H29+G29+F29+E29</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
-        <f>D29/100*(D29-L29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="L30">
-        <f>J30+I30+H30+G30+F30+E30</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
-        <f>D30/100*(D30-L30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31">
-        <f>J31+I31+H31+G31+F31+E31</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <f>D31/100*(D31-L31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>14</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="10">
+        <v>42380</v>
+      </c>
+      <c r="F34" s="10">
+        <v>42381</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="L35">
-        <f>J35+I35+H35+G35+F35+E35</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <f>D35/100*(D35-L35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="L36">
-        <f>J36+I36+H36+G36+F36+E36</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <f>D36/100*(D36-L36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="L37">
-        <f>J37+I37+H37+G37+F37+E37</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
-        <f>D37/100*(D37-L37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="L38">
-        <f>J38+I38+H38+G38+F38+E38</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <f>D38/100*(D38-L38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39">
-        <f>J39+I39+H39+G39+F39+E39</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <f>D39/100*(D39-L39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
-        <v>30.8</v>
+        <f>O6+O7+O8+O9+O13+O14+O15+O16+O22+O23+O24+O28+O29+O30+O31+O35+O36+O37+O38+O39</f>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L16" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3335,72 +3554,69 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="L6">
-        <f>J6+I6+H6+G6+F6+E6</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <f>D6/100*(D6-L6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <f>SUM(E6:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="L7">
-        <f t="shared" ref="L7:L9" si="0">J7+I7+H7+G7+F7+E7</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <f t="shared" ref="O7:O9" si="1">D7/100*(D7-L7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O7">
+        <f t="shared" ref="O7:O39" si="0">SUM(E7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3428,8 +3644,15 @@
       <c r="K12" s="10">
         <v>42336</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L12" s="10">
+        <v>42378</v>
+      </c>
+      <c r="M12" s="10">
+        <v>42379</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -3457,16 +3680,20 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13">
-        <f>K13+J13+I13+H13+G13+F13+E13</f>
-        <v>2</v>
-      </c>
-      <c r="O13" s="5">
-        <f>D13/100*(D13-L13)</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -3494,16 +3721,20 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14">
-        <f>K14+J14+I14+H14+G14+F14+E14</f>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" ref="O14:O18" si="2">D14/100*(D14-L14)</f>
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -3531,16 +3762,20 @@
       <c r="K15" s="6">
         <v>0</v>
       </c>
-      <c r="L15">
-        <f>K15+J15+I15+H15+G15+F15+E15</f>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -3568,16 +3803,20 @@
       <c r="K16" s="6">
         <v>3</v>
       </c>
-      <c r="L16">
-        <f>K16+J16+I16+H16+G16+F16+E16</f>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -3605,18 +3844,22 @@
       <c r="K17" s="6">
         <v>0</v>
       </c>
-      <c r="L17">
-        <f>K17+J17+I17+H17+G17+F17+E17</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L17" s="6">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
         <v>0.5</v>
@@ -3642,26 +3885,36 @@
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="L18">
-        <f>K18+J18+I18+H18+G18+F18+E18</f>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18">
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="2"/>
-        <v>9.999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
@@ -3684,11 +3937,18 @@
       <c r="J21" s="10">
         <v>42348</v>
       </c>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K21" s="10">
+        <v>42288</v>
+      </c>
+      <c r="L21" s="10">
+        <v>42352</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
         <v>5</v>
@@ -3711,18 +3971,21 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
-      <c r="L22">
-        <f>J22+I22+H22+G22+F22+E22</f>
-        <v>3</v>
-      </c>
-      <c r="O22" s="5">
-        <f>D22/100*(D22-L22)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
         <v>6</v>
@@ -3745,18 +4008,21 @@
       <c r="J23" s="8">
         <v>3</v>
       </c>
-      <c r="L23">
-        <f t="shared" ref="L23:L24" si="3">J23+I23+H23+G23+F23+E23</f>
-        <v>9</v>
-      </c>
-      <c r="O23" s="5">
-        <f t="shared" ref="O23:O24" si="4">D23/100*(D23-L23)</f>
-        <v>-0.18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
         <v>3</v>
@@ -3779,189 +4045,276 @@
       <c r="J24" s="6">
         <v>0</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O24" s="5">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K24" s="6">
+        <v>3</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="E27" s="10">
+        <v>42350</v>
+      </c>
+      <c r="F27" s="10">
+        <v>42366</v>
+      </c>
+      <c r="G27" s="10">
+        <v>42379</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="L28">
-        <f>J28+I28+H28+G28+F28+E28</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="5">
-        <f>D28/100*(D28-L28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="L29">
-        <f t="shared" ref="L29:L31" si="5">J29+I29+H29+G29+F29+E29</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="5">
-        <f t="shared" ref="O29:O30" si="6">D29/100*(D29-L29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <f>D31/100*(D31-L31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
         <v>14</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="10">
+        <v>42380</v>
+      </c>
+      <c r="F34" s="10">
+        <v>42381</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>28</v>
       </c>
-      <c r="L35">
-        <f>J35+I35+H35+G35+F35+E35</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <f>D35/100*(D35-L35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="L36">
-        <f t="shared" ref="L36:L39" si="7">J36+I36+H36+G36+F36+E36</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <f>D36/100*(D36-L36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
-        <f t="shared" ref="O37:O38" si="8">D37/100*(D37-L37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <f>D39/100*(D39-L39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <f>L6+L7+L8+L9+L13+L14+L15+L16+L22+L23+L24+L28+L29+L30+L31+L35+L36+L37+L38+L39</f>
-        <v>29</v>
+        <f>O6+O7+O8+O9+O13+O14+O15+O16+O22+O23+O24+O28+O29+O30+O31+O35+O36+O37+O38+O39</f>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
